--- a/paprastas/Results.xlsx
+++ b/paprastas/Results.xlsx
@@ -532,20 +532,20 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>33.3</v>
+        <v>55.6</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>36.8</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1" t="n"/>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>110/164</t>
+          <t>110/160</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>124/186</t>
+          <t>130/180</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
@@ -556,23 +556,23 @@
       <c r="H3" s="1" t="n"/>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>38/40</t>
+          <t>110/160</t>
         </is>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>112/174</t>
+          <t>90/250</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>32/40</t>
+          <t>120/190</t>
         </is>
       </c>
       <c r="L3" s="1" t="n"/>
       <c r="M3" s="2" t="inlineStr">
         <is>
-          <t>106/160</t>
+          <t>110/150</t>
         </is>
       </c>
       <c r="N3" s="1">
@@ -594,13 +594,13 @@
       <c r="X3" s="3" t="n"/>
       <c r="Y3" s="3" t="n"/>
       <c r="Z3" s="1" t="n">
-        <v>0.6449</v>
+        <v>0.3738</v>
       </c>
       <c r="AA3" s="1" t="n">
-        <v>0.2165</v>
+        <v>0.5835</v>
       </c>
       <c r="AB3" s="2" t="n">
-        <v>-0.7571</v>
+        <v>0.46</v>
       </c>
       <c r="AC3" s="2" t="n"/>
     </row>

--- a/paprastas/Results.xlsx
+++ b/paprastas/Results.xlsx
@@ -605,19 +605,41 @@
       <c r="AC3" s="2" t="n"/>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="2" t="n"/>
-      <c r="B4" s="2" t="n"/>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>BO</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>47.1</v>
+      </c>
       <c r="C4" s="2" t="n"/>
       <c r="D4" s="1" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>30/70</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>220/270</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>30/110</t>
+        </is>
+      </c>
       <c r="H4" s="1" t="n"/>
       <c r="I4" s="2" t="n"/>
       <c r="J4" s="2" t="n"/>
       <c r="K4" s="2" t="n"/>
       <c r="L4" s="1" t="n"/>
-      <c r="M4" s="2" t="n"/>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>50/60</t>
+        </is>
+      </c>
       <c r="N4" s="3" t="n"/>
       <c r="O4" s="3" t="n"/>
       <c r="P4" s="1" t="n"/>
@@ -631,9 +653,11 @@
       <c r="X4" s="1" t="n"/>
       <c r="Y4" s="1" t="n"/>
       <c r="Z4" s="1" t="n">
-        <v>-0.4398</v>
+        <v>-0.298</v>
       </c>
-      <c r="AA4" s="1" t="n"/>
+      <c r="AA4" s="1" t="n">
+        <v>-0.2072</v>
+      </c>
       <c r="AB4" s="2" t="n"/>
       <c r="AC4" s="2" t="n"/>
     </row>

--- a/paprastas/Results.xlsx
+++ b/paprastas/Results.xlsx
@@ -532,20 +532,20 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>55.6</v>
+        <v>33.3</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>50</v>
+        <v>36.8</v>
       </c>
       <c r="D3" s="1" t="n"/>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>110/160</t>
+          <t>110/164</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>130/180</t>
+          <t>124/186</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
@@ -556,23 +556,23 @@
       <c r="H3" s="1" t="n"/>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>110/160</t>
+          <t>38/40</t>
         </is>
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>90/250</t>
+          <t>112/174</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>120/190</t>
+          <t>32/40</t>
         </is>
       </c>
       <c r="L3" s="1" t="n"/>
       <c r="M3" s="2" t="inlineStr">
         <is>
-          <t>110/150</t>
+          <t>106/160</t>
         </is>
       </c>
       <c r="N3" s="1">
@@ -594,13 +594,13 @@
       <c r="X3" s="3" t="n"/>
       <c r="Y3" s="3" t="n"/>
       <c r="Z3" s="1" t="n">
-        <v>0.3738</v>
+        <v>0.6449</v>
       </c>
       <c r="AA3" s="1" t="n">
-        <v>0.5835</v>
+        <v>0.2165</v>
       </c>
       <c r="AB3" s="2" t="n">
-        <v>0.46</v>
+        <v>-0.7571</v>
       </c>
       <c r="AC3" s="2" t="n"/>
     </row>
@@ -611,23 +611,23 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>47.1</v>
+        <v>64.7</v>
       </c>
       <c r="C4" s="2" t="n"/>
       <c r="D4" s="1" t="n"/>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>30/70</t>
+          <t>34/66</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>220/270</t>
+          <t>222/270</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>30/110</t>
+          <t>28/100</t>
         </is>
       </c>
       <c r="H4" s="1" t="n"/>
@@ -637,7 +637,7 @@
       <c r="L4" s="1" t="n"/>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>50/60</t>
+          <t>48/54</t>
         </is>
       </c>
       <c r="N4" s="3" t="n"/>
@@ -653,10 +653,10 @@
       <c r="X4" s="1" t="n"/>
       <c r="Y4" s="1" t="n"/>
       <c r="Z4" s="1" t="n">
-        <v>-0.298</v>
+        <v>-0.4398</v>
       </c>
       <c r="AA4" s="1" t="n">
-        <v>-0.2072</v>
+        <v>-0.2042</v>
       </c>
       <c r="AB4" s="2" t="n"/>
       <c r="AC4" s="2" t="n"/>

--- a/paprastas/Results.xlsx
+++ b/paprastas/Results.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -347,7 +347,7 @@
   <dimension ref="A1:AC1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3:AC10"/>
+      <selection activeCell="Z3" sqref="Z3:AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -575,14 +575,8 @@
           <t>106/160</t>
         </is>
       </c>
-      <c r="N3" s="1">
-        <f>AVERAGE(B3:B275)</f>
-        <v/>
-      </c>
-      <c r="O3" s="1">
-        <f>AVERAGE(C3:C220)</f>
-        <v/>
-      </c>
+      <c r="N3" s="1" t="n"/>
+      <c r="O3" s="1" t="n"/>
       <c r="P3" s="1" t="n"/>
       <c r="Q3" s="1" t="n"/>
       <c r="R3" s="1" t="n"/>
@@ -613,7 +607,9 @@
       <c r="B4" s="2" t="n">
         <v>64.7</v>
       </c>
-      <c r="C4" s="2" t="n"/>
+      <c r="C4" s="2" t="n">
+        <v>68.40000000000001</v>
+      </c>
       <c r="D4" s="1" t="n"/>
       <c r="E4" s="2" t="inlineStr">
         <is>
@@ -631,9 +627,21 @@
         </is>
       </c>
       <c r="H4" s="1" t="n"/>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
-      <c r="K4" s="2" t="n"/>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>34/64</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>228/236</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>218/274</t>
+        </is>
+      </c>
       <c r="L4" s="1" t="n"/>
       <c r="M4" s="2" t="inlineStr">
         <is>
@@ -658,23 +666,61 @@
       <c r="AA4" s="1" t="n">
         <v>-0.2042</v>
       </c>
-      <c r="AB4" s="2" t="n"/>
+      <c r="AB4" s="2" t="n">
+        <v>0.1664</v>
+      </c>
       <c r="AC4" s="2" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="2" t="n"/>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="2" t="n"/>
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>53.8</v>
+      </c>
       <c r="D5" s="1" t="n"/>
-      <c r="E5" s="1" t="n"/>
-      <c r="F5" s="1" t="n"/>
-      <c r="G5" s="1" t="n"/>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>30/94</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>38/72</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>22/286</t>
+        </is>
+      </c>
       <c r="H5" s="1" t="n"/>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
-      <c r="K5" s="2" t="n"/>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>28/102</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>34/64</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>24/284</t>
+        </is>
+      </c>
       <c r="L5" s="1" t="n"/>
-      <c r="M5" s="2" t="n"/>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>42/58</t>
+        </is>
+      </c>
       <c r="N5" s="1" t="n"/>
       <c r="O5" s="1" t="n"/>
       <c r="P5" s="1" t="n"/>
@@ -690,24 +736,64 @@
       <c r="Z5" s="1" t="n">
         <v>0.5729</v>
       </c>
-      <c r="AA5" s="1" t="n"/>
-      <c r="AB5" s="2" t="n"/>
+      <c r="AA5" s="1" t="n">
+        <v>0.1435</v>
+      </c>
+      <c r="AB5" s="2" t="n">
+        <v>0.2148</v>
+      </c>
       <c r="AC5" s="2" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="2" t="n"/>
-      <c r="B6" s="2" t="n"/>
-      <c r="C6" s="2" t="n"/>
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>BRN</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>30</v>
+      </c>
       <c r="D6" s="1" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-      <c r="G6" s="2" t="n"/>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>26/52</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>32/266</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>30/200</t>
+        </is>
+      </c>
       <c r="H6" s="1" t="n"/>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
-      <c r="K6" s="2" t="n"/>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>24/30</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>30/56</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>32/274</t>
+        </is>
+      </c>
       <c r="L6" s="1" t="n"/>
-      <c r="M6" s="2" t="n"/>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>10/26</t>
+        </is>
+      </c>
       <c r="N6" s="1" t="n"/>
       <c r="O6" s="1" t="n"/>
       <c r="P6" s="1" t="n"/>
@@ -723,24 +809,48 @@
       <c r="Z6" s="1" t="n">
         <v>0.6187</v>
       </c>
-      <c r="AA6" s="1" t="n"/>
-      <c r="AB6" s="2" t="n"/>
+      <c r="AA6" s="1" t="n">
+        <v>0.0574</v>
+      </c>
+      <c r="AB6" s="2" t="n">
+        <v>0.0533</v>
+      </c>
       <c r="AC6" s="2" t="n"/>
     </row>
     <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="2" t="n"/>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
       <c r="D7" s="1" t="n"/>
-      <c r="E7" s="2" t="n"/>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>148/252</t>
+        </is>
+      </c>
       <c r="F7" s="2" t="n"/>
       <c r="G7" s="2" t="n"/>
       <c r="H7" s="1" t="n"/>
-      <c r="I7" s="2" t="n"/>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>106/150</t>
+        </is>
+      </c>
       <c r="J7" s="2" t="n"/>
       <c r="K7" s="2" t="n"/>
       <c r="L7" s="1" t="n"/>
-      <c r="M7" s="2" t="n"/>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>118/134</t>
+        </is>
+      </c>
       <c r="N7" s="1" t="n"/>
       <c r="O7" s="1" t="n"/>
       <c r="P7" s="1" t="n"/>
@@ -756,24 +866,48 @@
       <c r="Z7" s="1" t="n">
         <v>1.6186</v>
       </c>
-      <c r="AA7" s="1" t="n"/>
-      <c r="AB7" s="2" t="n"/>
+      <c r="AA7" s="1" t="n">
+        <v>1.6563</v>
+      </c>
+      <c r="AB7" s="2" t="n">
+        <v>1.8822</v>
+      </c>
       <c r="AC7" s="2" t="n"/>
     </row>
     <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="2" t="n"/>
-      <c r="B8" s="2" t="n"/>
-      <c r="C8" s="2" t="n"/>
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>83.3</v>
+      </c>
       <c r="D8" s="1" t="n"/>
-      <c r="E8" s="2" t="n"/>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>148/250</t>
+        </is>
+      </c>
       <c r="F8" s="1" t="n"/>
       <c r="G8" s="1" t="n"/>
       <c r="H8" s="1" t="n"/>
-      <c r="I8" s="2" t="n"/>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>118/138</t>
+        </is>
+      </c>
       <c r="J8" s="2" t="n"/>
       <c r="K8" s="1" t="n"/>
       <c r="L8" s="1" t="n"/>
-      <c r="M8" s="2" t="n"/>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>118/134</t>
+        </is>
+      </c>
       <c r="N8" s="1" t="n"/>
       <c r="O8" s="1" t="n"/>
       <c r="P8" s="1" t="n"/>
@@ -786,25 +920,67 @@
       <c r="W8" s="1" t="n"/>
       <c r="X8" s="1" t="n"/>
       <c r="Y8" s="1" t="n"/>
-      <c r="Z8" s="1" t="n"/>
-      <c r="AA8" s="1" t="n"/>
-      <c r="AB8" s="2" t="n"/>
+      <c r="Z8" s="1" t="n">
+        <v>1.608</v>
+      </c>
+      <c r="AA8" s="1" t="n">
+        <v>1.6137</v>
+      </c>
+      <c r="AB8" s="2" t="n">
+        <v>2.0587</v>
+      </c>
       <c r="AC8" s="2" t="n"/>
     </row>
     <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="2" t="n"/>
-      <c r="B9" s="2" t="n"/>
-      <c r="C9" s="2" t="n"/>
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>47.4</v>
+      </c>
       <c r="D9" s="1" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="1" t="n"/>
-      <c r="G9" s="1" t="n"/>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>24/52</t>
+        </is>
+      </c>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>30/164</t>
+        </is>
+      </c>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>252/284</t>
+        </is>
+      </c>
       <c r="H9" s="1" t="n"/>
-      <c r="I9" s="2" t="n"/>
-      <c r="J9" s="1" t="n"/>
-      <c r="K9" s="1" t="n"/>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>22/60</t>
+        </is>
+      </c>
+      <c r="J9" s="1" t="inlineStr">
+        <is>
+          <t>36/38</t>
+        </is>
+      </c>
+      <c r="K9" s="1" t="inlineStr">
+        <is>
+          <t>250/282</t>
+        </is>
+      </c>
       <c r="L9" s="1" t="n"/>
-      <c r="M9" s="2" t="n"/>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>38/44</t>
+        </is>
+      </c>
       <c r="N9" s="1" t="n"/>
       <c r="O9" s="1" t="n"/>
       <c r="P9" s="1" t="n"/>
@@ -817,25 +993,67 @@
       <c r="W9" s="1" t="n"/>
       <c r="X9" s="1" t="n"/>
       <c r="Y9" s="1" t="n"/>
-      <c r="Z9" s="1" t="n"/>
-      <c r="AA9" s="1" t="n"/>
-      <c r="AB9" s="2" t="n"/>
+      <c r="Z9" s="1" t="n">
+        <v>-0.9993</v>
+      </c>
+      <c r="AA9" s="1" t="n">
+        <v>-0.2588</v>
+      </c>
+      <c r="AB9" s="2" t="n">
+        <v>-0.63</v>
+      </c>
       <c r="AC9" s="2" t="n"/>
     </row>
     <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="2" t="n"/>
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="n"/>
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>60</v>
+      </c>
       <c r="D10" s="1" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
-      <c r="G10" s="2" t="n"/>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>30/56</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>34/276</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>36/214</t>
+        </is>
+      </c>
       <c r="H10" s="1" t="n"/>
-      <c r="I10" s="2" t="n"/>
-      <c r="J10" s="2" t="n"/>
-      <c r="K10" s="2" t="n"/>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>168/174</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>32/52</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>40/98</t>
+        </is>
+      </c>
       <c r="L10" s="1" t="n"/>
-      <c r="M10" s="2" t="n"/>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>48/50</t>
+        </is>
+      </c>
       <c r="N10" s="1" t="n"/>
       <c r="O10" s="1" t="n"/>
       <c r="P10" s="1" t="n"/>
@@ -848,25 +1066,67 @@
       <c r="W10" s="1" t="n"/>
       <c r="X10" s="1" t="n"/>
       <c r="Y10" s="1" t="n"/>
-      <c r="Z10" s="1" t="n"/>
-      <c r="AA10" s="1" t="n"/>
-      <c r="AB10" s="2" t="n"/>
+      <c r="Z10" s="1" t="n">
+        <v>-0.6531</v>
+      </c>
+      <c r="AA10" s="1" t="n">
+        <v>-0.0868</v>
+      </c>
+      <c r="AB10" s="2" t="n">
+        <v>-0.0504</v>
+      </c>
       <c r="AC10" s="2" t="n"/>
     </row>
     <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="2" t="n"/>
-      <c r="B11" s="2" t="n"/>
-      <c r="C11" s="2" t="n"/>
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>31.2</v>
+      </c>
       <c r="D11" s="1" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
-      <c r="G11" s="2" t="n"/>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>28/146</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>30/54</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>34/278</t>
+        </is>
+      </c>
       <c r="H11" s="1" t="n"/>
-      <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="n"/>
-      <c r="K11" s="2" t="n"/>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>34/44</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>32/54</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>34/36</t>
+        </is>
+      </c>
       <c r="L11" s="1" t="n"/>
-      <c r="M11" s="2" t="n"/>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>34/46</t>
+        </is>
+      </c>
       <c r="N11" s="1" t="n"/>
       <c r="O11" s="1" t="n"/>
       <c r="P11" s="1" t="n"/>
@@ -879,25 +1139,67 @@
       <c r="W11" s="1" t="n"/>
       <c r="X11" s="1" t="n"/>
       <c r="Y11" s="1" t="n"/>
-      <c r="Z11" s="1" t="n"/>
-      <c r="AA11" s="1" t="n"/>
-      <c r="AB11" s="2" t="n"/>
+      <c r="Z11" s="1" t="n">
+        <v>0.2334</v>
+      </c>
+      <c r="AA11" s="1" t="n">
+        <v>-0.1092</v>
+      </c>
+      <c r="AB11" s="2" t="n">
+        <v>0.1096</v>
+      </c>
       <c r="AC11" s="2" t="n"/>
     </row>
     <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="2" t="n"/>
-      <c r="B12" s="2" t="n"/>
-      <c r="C12" s="2" t="n"/>
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>DX</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>50</v>
+      </c>
       <c r="D12" s="1" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
-      <c r="G12" s="2" t="n"/>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>34/56</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>92/128</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>32/270</t>
+        </is>
+      </c>
       <c r="H12" s="1" t="n"/>
-      <c r="I12" s="2" t="n"/>
-      <c r="J12" s="2" t="n"/>
-      <c r="K12" s="2" t="n"/>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>36/62</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>92/122</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>32/42</t>
+        </is>
+      </c>
       <c r="L12" s="1" t="n"/>
-      <c r="M12" s="2" t="n"/>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>38/46</t>
+        </is>
+      </c>
       <c r="N12" s="1" t="n"/>
       <c r="O12" s="1" t="n"/>
       <c r="P12" s="1" t="n"/>
@@ -910,25 +1212,67 @@
       <c r="W12" s="1" t="n"/>
       <c r="X12" s="1" t="n"/>
       <c r="Y12" s="1" t="n"/>
-      <c r="Z12" s="1" t="n"/>
-      <c r="AA12" s="1" t="n"/>
-      <c r="AB12" s="2" t="n"/>
+      <c r="Z12" s="1" t="n">
+        <v>-0.4997</v>
+      </c>
+      <c r="AA12" s="1" t="n">
+        <v>0.0236</v>
+      </c>
+      <c r="AB12" s="2" t="n">
+        <v>-0.201</v>
+      </c>
       <c r="AC12" s="2" t="n"/>
     </row>
     <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="2" t="n"/>
-      <c r="B13" s="2" t="n"/>
-      <c r="C13" s="2" t="n"/>
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>EC</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>14.3</v>
+      </c>
       <c r="D13" s="1" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
-      <c r="G13" s="2" t="n"/>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>32/58</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>86/128</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>32/266</t>
+        </is>
+      </c>
       <c r="H13" s="1" t="n"/>
-      <c r="I13" s="2" t="n"/>
-      <c r="J13" s="2" t="n"/>
-      <c r="K13" s="2" t="n"/>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>92/116</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>30/60</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>44/138</t>
+        </is>
+      </c>
       <c r="L13" s="1" t="n"/>
-      <c r="M13" s="2" t="n"/>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>102/106</t>
+        </is>
+      </c>
       <c r="N13" s="1" t="n"/>
       <c r="O13" s="1" t="n"/>
       <c r="P13" s="1" t="n"/>
@@ -941,25 +1285,67 @@
       <c r="W13" s="1" t="n"/>
       <c r="X13" s="1" t="n"/>
       <c r="Y13" s="1" t="n"/>
-      <c r="Z13" s="1" t="n"/>
-      <c r="AA13" s="1" t="n"/>
-      <c r="AB13" s="2" t="n"/>
+      <c r="Z13" s="1" t="n">
+        <v>0.0387</v>
+      </c>
+      <c r="AA13" s="1" t="n">
+        <v>0.0551</v>
+      </c>
+      <c r="AB13" s="2" t="n">
+        <v>-0.312</v>
+      </c>
       <c r="AC13" s="2" t="n"/>
     </row>
     <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="2" t="n"/>
-      <c r="B14" s="2" t="n"/>
-      <c r="C14" s="2" t="n"/>
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>50</v>
+      </c>
       <c r="D14" s="1" t="n"/>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n"/>
-      <c r="G14" s="2" t="n"/>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>194/226</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>184/216</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>254/288</t>
+        </is>
+      </c>
       <c r="H14" s="1" t="n"/>
-      <c r="I14" s="2" t="n"/>
-      <c r="J14" s="2" t="n"/>
-      <c r="K14" s="2" t="n"/>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>196/228</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>20/226</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>48/276</t>
+        </is>
+      </c>
       <c r="L14" s="1" t="n"/>
-      <c r="M14" s="2" t="n"/>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>162/274</t>
+        </is>
+      </c>
       <c r="N14" s="1" t="n"/>
       <c r="O14" s="1" t="n"/>
       <c r="P14" s="1" t="n"/>
@@ -972,25 +1358,67 @@
       <c r="W14" s="1" t="n"/>
       <c r="X14" s="1" t="n"/>
       <c r="Y14" s="1" t="n"/>
-      <c r="Z14" s="1" t="n"/>
-      <c r="AA14" s="1" t="n"/>
-      <c r="AB14" s="2" t="n"/>
+      <c r="Z14" s="1" t="n">
+        <v>0.1835</v>
+      </c>
+      <c r="AA14" s="1" t="n">
+        <v>0.1714</v>
+      </c>
+      <c r="AB14" s="2" t="n">
+        <v>0.1621</v>
+      </c>
       <c r="AC14" s="2" t="n"/>
     </row>
     <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="2" t="n"/>
-      <c r="B15" s="2" t="n"/>
-      <c r="C15" s="2" t="n"/>
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>FC</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>55.6</v>
+      </c>
       <c r="D15" s="1" t="n"/>
-      <c r="E15" s="2" t="n"/>
-      <c r="F15" s="2" t="n"/>
-      <c r="G15" s="2" t="n"/>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>50/98</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>154/240</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>76/220</t>
+        </is>
+      </c>
       <c r="H15" s="1" t="n"/>
-      <c r="I15" s="2" t="n"/>
-      <c r="J15" s="2" t="n"/>
-      <c r="K15" s="2" t="n"/>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>44/110</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>156/206</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>114/118</t>
+        </is>
+      </c>
       <c r="L15" s="1" t="n"/>
-      <c r="M15" s="2" t="n"/>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>212/214</t>
+        </is>
+      </c>
       <c r="N15" s="1" t="n"/>
       <c r="O15" s="1" t="n"/>
       <c r="P15" s="1" t="n"/>
@@ -1003,25 +1431,51 @@
       <c r="W15" s="1" t="n"/>
       <c r="X15" s="1" t="n"/>
       <c r="Y15" s="1" t="n"/>
-      <c r="Z15" s="1" t="n"/>
-      <c r="AA15" s="1" t="n"/>
-      <c r="AB15" s="2" t="n"/>
+      <c r="Z15" s="1" t="n">
+        <v>-0.2095</v>
+      </c>
+      <c r="AA15" s="1" t="n">
+        <v>0.0594</v>
+      </c>
+      <c r="AB15" s="2" t="n">
+        <v>-0.1107</v>
+      </c>
       <c r="AC15" s="2" t="n"/>
     </row>
     <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="2" t="n"/>
-      <c r="B16" s="2" t="n"/>
-      <c r="C16" s="2" t="n"/>
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>FDAX</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D16" s="1" t="n"/>
-      <c r="E16" s="2" t="n"/>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>176/240</t>
+        </is>
+      </c>
       <c r="F16" s="2" t="n"/>
       <c r="G16" s="2" t="n"/>
       <c r="H16" s="1" t="n"/>
-      <c r="I16" s="2" t="n"/>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>178/234</t>
+        </is>
+      </c>
       <c r="J16" s="2" t="n"/>
       <c r="K16" s="2" t="n"/>
       <c r="L16" s="1" t="n"/>
-      <c r="M16" s="2" t="n"/>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>160/262</t>
+        </is>
+      </c>
       <c r="N16" s="1" t="n"/>
       <c r="O16" s="1" t="n"/>
       <c r="P16" s="1" t="n"/>
@@ -1034,17 +1488,33 @@
       <c r="W16" s="1" t="n"/>
       <c r="X16" s="1" t="n"/>
       <c r="Y16" s="1" t="n"/>
-      <c r="Z16" s="1" t="n"/>
-      <c r="AA16" s="1" t="n"/>
-      <c r="AB16" s="2" t="n"/>
+      <c r="Z16" s="1" t="n">
+        <v>-0.0286</v>
+      </c>
+      <c r="AA16" s="1" t="n">
+        <v>-0.289</v>
+      </c>
+      <c r="AB16" s="2" t="n">
+        <v>-0.293</v>
+      </c>
       <c r="AC16" s="2" t="n"/>
     </row>
     <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="2" t="n"/>
-      <c r="B17" s="2" t="n"/>
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>FESX</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>46.2</v>
+      </c>
       <c r="C17" s="2" t="n"/>
       <c r="D17" s="1" t="n"/>
-      <c r="E17" s="2" t="n"/>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>182/222</t>
+        </is>
+      </c>
       <c r="F17" s="2" t="n"/>
       <c r="G17" s="2" t="n"/>
       <c r="H17" s="1" t="n"/>
@@ -1052,7 +1522,11 @@
       <c r="J17" s="2" t="n"/>
       <c r="K17" s="2" t="n"/>
       <c r="L17" s="1" t="n"/>
-      <c r="M17" s="2" t="n"/>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>106/108</t>
+        </is>
+      </c>
       <c r="N17" s="1" t="n"/>
       <c r="O17" s="1" t="n"/>
       <c r="P17" s="1" t="n"/>
@@ -1065,25 +1539,65 @@
       <c r="W17" s="1" t="n"/>
       <c r="X17" s="1" t="n"/>
       <c r="Y17" s="1" t="n"/>
-      <c r="Z17" s="1" t="n"/>
-      <c r="AA17" s="1" t="n"/>
+      <c r="Z17" s="1" t="n">
+        <v>-0.1475</v>
+      </c>
+      <c r="AA17" s="1" t="n">
+        <v>-0.1503</v>
+      </c>
       <c r="AB17" s="2" t="n"/>
       <c r="AC17" s="2" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="2" t="n"/>
-      <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>FGBL</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>50</v>
+      </c>
       <c r="D18" s="1" t="n"/>
-      <c r="E18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
-      <c r="G18" s="1" t="n"/>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>32/84</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>130/256</t>
+        </is>
+      </c>
+      <c r="G18" s="1" t="inlineStr">
+        <is>
+          <t>154/192</t>
+        </is>
+      </c>
       <c r="H18" s="1" t="n"/>
-      <c r="I18" s="2" t="n"/>
-      <c r="J18" s="2" t="n"/>
-      <c r="K18" s="2" t="n"/>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>136/252</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>228/276</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>28/82</t>
+        </is>
+      </c>
       <c r="L18" s="1" t="n"/>
-      <c r="M18" s="2" t="n"/>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>36/62</t>
+        </is>
+      </c>
       <c r="N18" s="1" t="n"/>
       <c r="O18" s="1" t="n"/>
       <c r="P18" s="1" t="n"/>
@@ -1096,25 +1610,67 @@
       <c r="W18" s="1" t="n"/>
       <c r="X18" s="1" t="n"/>
       <c r="Y18" s="1" t="n"/>
-      <c r="Z18" s="1" t="n"/>
-      <c r="AA18" s="1" t="n"/>
-      <c r="AB18" s="2" t="n"/>
+      <c r="Z18" s="1" t="n">
+        <v>-0.1013</v>
+      </c>
+      <c r="AA18" s="1" t="n">
+        <v>0.08069999999999999</v>
+      </c>
+      <c r="AB18" s="2" t="n">
+        <v>0.2906</v>
+      </c>
       <c r="AC18" s="2" t="n"/>
     </row>
     <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
-      <c r="C19" s="2" t="n"/>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>FGBM</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>45.5</v>
+      </c>
       <c r="D19" s="1" t="n"/>
-      <c r="E19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="n"/>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>204/236</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>214/268</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>168/240</t>
+        </is>
+      </c>
       <c r="H19" s="1" t="n"/>
-      <c r="I19" s="2" t="n"/>
-      <c r="J19" s="2" t="n"/>
-      <c r="K19" s="2" t="n"/>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>206/230</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>178/254</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>102/252</t>
+        </is>
+      </c>
       <c r="L19" s="1" t="n"/>
-      <c r="M19" s="2" t="n"/>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>222/234</t>
+        </is>
+      </c>
       <c r="N19" s="1" t="n"/>
       <c r="O19" s="1" t="n"/>
       <c r="P19" s="1" t="n"/>
@@ -1127,25 +1683,67 @@
       <c r="W19" s="1" t="n"/>
       <c r="X19" s="1" t="n"/>
       <c r="Y19" s="1" t="n"/>
-      <c r="Z19" s="1" t="n"/>
-      <c r="AA19" s="1" t="n"/>
-      <c r="AB19" s="2" t="n"/>
+      <c r="Z19" s="1" t="n">
+        <v>0.7178</v>
+      </c>
+      <c r="AA19" s="1" t="n">
+        <v>0.8589</v>
+      </c>
+      <c r="AB19" s="2" t="n">
+        <v>0.7214</v>
+      </c>
       <c r="AC19" s="2" t="n"/>
     </row>
     <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="n"/>
-      <c r="C20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>FGBX</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>57.9</v>
+      </c>
       <c r="D20" s="1" t="n"/>
-      <c r="E20" s="1" t="n"/>
-      <c r="F20" s="1" t="n"/>
-      <c r="G20" s="1" t="n"/>
+      <c r="E20" s="1" t="inlineStr">
+        <is>
+          <t>34/70</t>
+        </is>
+      </c>
+      <c r="F20" s="1" t="inlineStr">
+        <is>
+          <t>144/186</t>
+        </is>
+      </c>
+      <c r="G20" s="1" t="inlineStr">
+        <is>
+          <t>84/216</t>
+        </is>
+      </c>
       <c r="H20" s="1" t="n"/>
-      <c r="I20" s="1" t="n"/>
-      <c r="J20" s="1" t="n"/>
-      <c r="K20" s="1" t="n"/>
+      <c r="I20" s="1" t="inlineStr">
+        <is>
+          <t>46/52</t>
+        </is>
+      </c>
+      <c r="J20" s="1" t="inlineStr">
+        <is>
+          <t>30/32</t>
+        </is>
+      </c>
+      <c r="K20" s="1" t="inlineStr">
+        <is>
+          <t>32/80</t>
+        </is>
+      </c>
       <c r="L20" s="1" t="n"/>
-      <c r="M20" s="1" t="n"/>
+      <c r="M20" s="1" t="inlineStr">
+        <is>
+          <t>50/56</t>
+        </is>
+      </c>
       <c r="N20" s="1" t="n"/>
       <c r="O20" s="1" t="n"/>
       <c r="P20" s="1" t="n"/>
@@ -1158,25 +1756,67 @@
       <c r="W20" s="1" t="n"/>
       <c r="X20" s="1" t="n"/>
       <c r="Y20" s="1" t="n"/>
-      <c r="Z20" s="1" t="n"/>
-      <c r="AA20" s="1" t="n"/>
-      <c r="AB20" s="2" t="n"/>
+      <c r="Z20" s="1" t="n">
+        <v>-0.8169</v>
+      </c>
+      <c r="AA20" s="1" t="n">
+        <v>0.0467</v>
+      </c>
+      <c r="AB20" s="2" t="n">
+        <v>-0.4577</v>
+      </c>
       <c r="AC20" s="2" t="n"/>
     </row>
     <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="n"/>
-      <c r="C21" s="1" t="n"/>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>FV</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>41.2</v>
+      </c>
       <c r="D21" s="1" t="n"/>
-      <c r="E21" s="1" t="n"/>
-      <c r="F21" s="1" t="n"/>
-      <c r="G21" s="1" t="n"/>
+      <c r="E21" s="1" t="inlineStr">
+        <is>
+          <t>56/82</t>
+        </is>
+      </c>
+      <c r="F21" s="1" t="inlineStr">
+        <is>
+          <t>78/208</t>
+        </is>
+      </c>
+      <c r="G21" s="1" t="inlineStr">
+        <is>
+          <t>28/152</t>
+        </is>
+      </c>
       <c r="H21" s="1" t="n"/>
-      <c r="I21" s="1" t="n"/>
-      <c r="J21" s="1" t="n"/>
-      <c r="K21" s="1" t="n"/>
+      <c r="I21" s="1" t="inlineStr">
+        <is>
+          <t>54/82</t>
+        </is>
+      </c>
+      <c r="J21" s="1" t="inlineStr">
+        <is>
+          <t>146/162</t>
+        </is>
+      </c>
+      <c r="K21" s="1" t="inlineStr">
+        <is>
+          <t>84/208</t>
+        </is>
+      </c>
       <c r="L21" s="1" t="n"/>
-      <c r="M21" s="1" t="n"/>
+      <c r="M21" s="1" t="inlineStr">
+        <is>
+          <t>72/80</t>
+        </is>
+      </c>
       <c r="N21" s="1" t="n"/>
       <c r="O21" s="1" t="n"/>
       <c r="P21" s="1" t="n"/>
@@ -1189,25 +1829,63 @@
       <c r="W21" s="1" t="n"/>
       <c r="X21" s="1" t="n"/>
       <c r="Y21" s="1" t="n"/>
-      <c r="Z21" s="1" t="n"/>
-      <c r="AA21" s="1" t="n"/>
-      <c r="AB21" s="2" t="n"/>
+      <c r="Z21" s="1" t="n">
+        <v>0.1507</v>
+      </c>
+      <c r="AA21" s="1" t="n">
+        <v>-0.0089</v>
+      </c>
+      <c r="AB21" s="2" t="n">
+        <v>0.1614</v>
+      </c>
       <c r="AC21" s="2" t="n"/>
     </row>
     <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="n"/>
-      <c r="C22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>GC</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>64.7</v>
+      </c>
       <c r="D22" s="1" t="n"/>
-      <c r="E22" s="1" t="n"/>
-      <c r="F22" s="1" t="n"/>
+      <c r="E22" s="1" t="inlineStr">
+        <is>
+          <t>90/146</t>
+        </is>
+      </c>
+      <c r="F22" s="1" t="inlineStr">
+        <is>
+          <t>28/58</t>
+        </is>
+      </c>
       <c r="G22" s="1" t="n"/>
       <c r="H22" s="1" t="n"/>
-      <c r="I22" s="1" t="n"/>
-      <c r="J22" s="1" t="n"/>
-      <c r="K22" s="1" t="n"/>
+      <c r="I22" s="1" t="inlineStr">
+        <is>
+          <t>34/42</t>
+        </is>
+      </c>
+      <c r="J22" s="1" t="inlineStr">
+        <is>
+          <t>86/150</t>
+        </is>
+      </c>
+      <c r="K22" s="1" t="inlineStr">
+        <is>
+          <t>24/64</t>
+        </is>
+      </c>
       <c r="L22" s="1" t="n"/>
-      <c r="M22" s="1" t="n"/>
+      <c r="M22" s="1" t="inlineStr">
+        <is>
+          <t>34/40</t>
+        </is>
+      </c>
       <c r="N22" s="1" t="n"/>
       <c r="O22" s="1" t="n"/>
       <c r="P22" s="1" t="n"/>
@@ -1220,25 +1898,67 @@
       <c r="W22" s="1" t="n"/>
       <c r="X22" s="1" t="n"/>
       <c r="Y22" s="1" t="n"/>
-      <c r="Z22" s="1" t="n"/>
-      <c r="AA22" s="1" t="n"/>
-      <c r="AB22" s="2" t="n"/>
+      <c r="Z22" s="1" t="n">
+        <v>-0.036</v>
+      </c>
+      <c r="AA22" s="1" t="n">
+        <v>0.1683</v>
+      </c>
+      <c r="AB22" s="2" t="n">
+        <v>0.0314</v>
+      </c>
       <c r="AC22" s="2" t="n"/>
     </row>
     <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="n"/>
-      <c r="C23" s="1" t="n"/>
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>HG</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>55.6</v>
+      </c>
       <c r="D23" s="1" t="n"/>
-      <c r="E23" s="1" t="n"/>
-      <c r="F23" s="1" t="n"/>
-      <c r="G23" s="1" t="n"/>
+      <c r="E23" s="1" t="inlineStr">
+        <is>
+          <t>188/238</t>
+        </is>
+      </c>
+      <c r="F23" s="1" t="inlineStr">
+        <is>
+          <t>90/254</t>
+        </is>
+      </c>
+      <c r="G23" s="1" t="inlineStr">
+        <is>
+          <t>136/242</t>
+        </is>
+      </c>
       <c r="H23" s="1" t="n"/>
-      <c r="I23" s="1" t="n"/>
-      <c r="J23" s="1" t="n"/>
-      <c r="K23" s="1" t="n"/>
+      <c r="I23" s="1" t="inlineStr">
+        <is>
+          <t>188/242</t>
+        </is>
+      </c>
+      <c r="J23" s="1" t="inlineStr">
+        <is>
+          <t>100/256</t>
+        </is>
+      </c>
+      <c r="K23" s="1" t="inlineStr">
+        <is>
+          <t>34/40</t>
+        </is>
+      </c>
       <c r="L23" s="1" t="n"/>
-      <c r="M23" s="1" t="n"/>
+      <c r="M23" s="1" t="inlineStr">
+        <is>
+          <t>202/204</t>
+        </is>
+      </c>
       <c r="N23" s="1" t="n"/>
       <c r="O23" s="1" t="n"/>
       <c r="P23" s="1" t="n"/>
@@ -1251,25 +1971,67 @@
       <c r="W23" s="1" t="n"/>
       <c r="X23" s="1" t="n"/>
       <c r="Y23" s="1" t="n"/>
-      <c r="Z23" s="1" t="n"/>
-      <c r="AA23" s="1" t="n"/>
-      <c r="AB23" s="2" t="n"/>
+      <c r="Z23" s="1" t="n">
+        <v>-1.3121</v>
+      </c>
+      <c r="AA23" s="1" t="n">
+        <v>-0.9779</v>
+      </c>
+      <c r="AB23" s="2" t="n">
+        <v>-0.6112</v>
+      </c>
       <c r="AC23" s="2" t="n"/>
     </row>
     <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="n"/>
-      <c r="C24" s="1" t="n"/>
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>57.9</v>
+      </c>
       <c r="D24" s="1" t="n"/>
-      <c r="E24" s="1" t="n"/>
-      <c r="F24" s="1" t="n"/>
-      <c r="G24" s="1" t="n"/>
+      <c r="E24" s="1" t="inlineStr">
+        <is>
+          <t>132/190</t>
+        </is>
+      </c>
+      <c r="F24" s="1" t="inlineStr">
+        <is>
+          <t>40/248</t>
+        </is>
+      </c>
+      <c r="G24" s="1" t="inlineStr">
+        <is>
+          <t>168/230</t>
+        </is>
+      </c>
       <c r="H24" s="1" t="n"/>
-      <c r="I24" s="1" t="n"/>
-      <c r="J24" s="1" t="n"/>
-      <c r="K24" s="1" t="n"/>
+      <c r="I24" s="1" t="inlineStr">
+        <is>
+          <t>134/192</t>
+        </is>
+      </c>
+      <c r="J24" s="1" t="inlineStr">
+        <is>
+          <t>26/32</t>
+        </is>
+      </c>
+      <c r="K24" s="1" t="inlineStr">
+        <is>
+          <t>40/246</t>
+        </is>
+      </c>
       <c r="L24" s="1" t="n"/>
-      <c r="M24" s="1" t="n"/>
+      <c r="M24" s="1" t="inlineStr">
+        <is>
+          <t>22/28</t>
+        </is>
+      </c>
       <c r="N24" s="1" t="n"/>
       <c r="O24" s="1" t="n"/>
       <c r="P24" s="1" t="n"/>
@@ -1282,25 +2044,55 @@
       <c r="W24" s="1" t="n"/>
       <c r="X24" s="1" t="n"/>
       <c r="Y24" s="1" t="n"/>
-      <c r="Z24" s="1" t="n"/>
-      <c r="AA24" s="1" t="n"/>
-      <c r="AB24" s="2" t="n"/>
+      <c r="Z24" s="1" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="AA24" s="1" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="AB24" s="2" t="n">
+        <v>0.4466</v>
+      </c>
       <c r="AC24" s="2" t="n"/>
     </row>
     <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="n"/>
-      <c r="C25" s="1" t="n"/>
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>JY</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>42.9</v>
+      </c>
       <c r="D25" s="1" t="n"/>
-      <c r="E25" s="1" t="n"/>
-      <c r="F25" s="1" t="n"/>
+      <c r="E25" s="1" t="inlineStr">
+        <is>
+          <t>250/274</t>
+        </is>
+      </c>
+      <c r="F25" s="1" t="inlineStr">
+        <is>
+          <t>32/78</t>
+        </is>
+      </c>
       <c r="G25" s="1" t="n"/>
       <c r="H25" s="1" t="n"/>
-      <c r="I25" s="1" t="n"/>
+      <c r="I25" s="1" t="inlineStr">
+        <is>
+          <t>242/272</t>
+        </is>
+      </c>
       <c r="J25" s="1" t="n"/>
       <c r="K25" s="1" t="n"/>
       <c r="L25" s="1" t="n"/>
-      <c r="M25" s="1" t="n"/>
+      <c r="M25" s="1" t="inlineStr">
+        <is>
+          <t>58/60</t>
+        </is>
+      </c>
       <c r="N25" s="1" t="n"/>
       <c r="O25" s="1" t="n"/>
       <c r="P25" s="1" t="n"/>
@@ -1313,25 +2105,63 @@
       <c r="W25" s="1" t="n"/>
       <c r="X25" s="1" t="n"/>
       <c r="Y25" s="1" t="n"/>
-      <c r="Z25" s="1" t="n"/>
-      <c r="AA25" s="1" t="n"/>
-      <c r="AB25" s="2" t="n"/>
+      <c r="Z25" s="1" t="n">
+        <v>0.8275</v>
+      </c>
+      <c r="AA25" s="1" t="n">
+        <v>1.2048</v>
+      </c>
+      <c r="AB25" s="2" t="n">
+        <v>1.2211</v>
+      </c>
       <c r="AC25" s="2" t="n"/>
     </row>
     <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="n"/>
-      <c r="C26" s="1" t="n"/>
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>KC</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>37.5</v>
+      </c>
       <c r="D26" s="1" t="n"/>
-      <c r="E26" s="1" t="n"/>
-      <c r="F26" s="1" t="n"/>
-      <c r="G26" s="1" t="n"/>
+      <c r="E26" s="1" t="inlineStr">
+        <is>
+          <t>110/154</t>
+        </is>
+      </c>
+      <c r="F26" s="1" t="inlineStr">
+        <is>
+          <t>96/146</t>
+        </is>
+      </c>
+      <c r="G26" s="1" t="inlineStr">
+        <is>
+          <t>40/190</t>
+        </is>
+      </c>
       <c r="H26" s="1" t="n"/>
-      <c r="I26" s="1" t="n"/>
-      <c r="J26" s="1" t="n"/>
+      <c r="I26" s="1" t="inlineStr">
+        <is>
+          <t>84/150</t>
+        </is>
+      </c>
+      <c r="J26" s="1" t="inlineStr">
+        <is>
+          <t>50/104</t>
+        </is>
+      </c>
       <c r="K26" s="1" t="n"/>
       <c r="L26" s="1" t="n"/>
-      <c r="M26" s="1" t="n"/>
+      <c r="M26" s="1" t="inlineStr">
+        <is>
+          <t>126/144</t>
+        </is>
+      </c>
       <c r="N26" s="1" t="n"/>
       <c r="O26" s="1" t="n"/>
       <c r="P26" s="1" t="n"/>
@@ -1344,25 +2174,67 @@
       <c r="W26" s="1" t="n"/>
       <c r="X26" s="1" t="n"/>
       <c r="Y26" s="1" t="n"/>
-      <c r="Z26" s="1" t="n"/>
-      <c r="AA26" s="1" t="n"/>
-      <c r="AB26" s="2" t="n"/>
+      <c r="Z26" s="1" t="n">
+        <v>0.6577</v>
+      </c>
+      <c r="AA26" s="1" t="n">
+        <v>0.3496</v>
+      </c>
+      <c r="AB26" s="2" t="n">
+        <v>0.3706</v>
+      </c>
       <c r="AC26" s="2" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="n"/>
-      <c r="C27" s="1" t="n"/>
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>KW</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>100</v>
+      </c>
       <c r="D27" s="1" t="n"/>
-      <c r="E27" s="1" t="n"/>
-      <c r="F27" s="1" t="n"/>
-      <c r="G27" s="1" t="n"/>
+      <c r="E27" s="1" t="inlineStr">
+        <is>
+          <t>196/242</t>
+        </is>
+      </c>
+      <c r="F27" s="1" t="inlineStr">
+        <is>
+          <t>256/284</t>
+        </is>
+      </c>
+      <c r="G27" s="1" t="inlineStr">
+        <is>
+          <t>114/160</t>
+        </is>
+      </c>
       <c r="H27" s="1" t="n"/>
-      <c r="I27" s="1" t="n"/>
-      <c r="J27" s="1" t="n"/>
-      <c r="K27" s="1" t="n"/>
+      <c r="I27" s="1" t="inlineStr">
+        <is>
+          <t>194/248</t>
+        </is>
+      </c>
+      <c r="J27" s="1" t="inlineStr">
+        <is>
+          <t>212/244</t>
+        </is>
+      </c>
+      <c r="K27" s="1" t="inlineStr">
+        <is>
+          <t>260/284</t>
+        </is>
+      </c>
       <c r="L27" s="1" t="n"/>
-      <c r="M27" s="1" t="n"/>
+      <c r="M27" s="1" t="inlineStr">
+        <is>
+          <t>218/300</t>
+        </is>
+      </c>
       <c r="N27" s="1" t="n"/>
       <c r="O27" s="1" t="n"/>
       <c r="P27" s="1" t="n"/>
@@ -1375,25 +2247,67 @@
       <c r="W27" s="1" t="n"/>
       <c r="X27" s="1" t="n"/>
       <c r="Y27" s="1" t="n"/>
-      <c r="Z27" s="1" t="n"/>
-      <c r="AA27" s="1" t="n"/>
-      <c r="AB27" s="2" t="n"/>
+      <c r="Z27" s="1" t="n">
+        <v>0.6641</v>
+      </c>
+      <c r="AA27" s="1" t="n">
+        <v>0.9083</v>
+      </c>
+      <c r="AB27" s="2" t="n">
+        <v>0.8482</v>
+      </c>
       <c r="AC27" s="2" t="n"/>
     </row>
     <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="1" t="n"/>
-      <c r="B28" s="1" t="n"/>
-      <c r="C28" s="1" t="n"/>
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>58.8</v>
+      </c>
       <c r="D28" s="1" t="n"/>
-      <c r="E28" s="1" t="n"/>
-      <c r="F28" s="1" t="n"/>
-      <c r="G28" s="1" t="n"/>
+      <c r="E28" s="1" t="inlineStr">
+        <is>
+          <t>140/246</t>
+        </is>
+      </c>
+      <c r="F28" s="1" t="inlineStr">
+        <is>
+          <t>30/74</t>
+        </is>
+      </c>
+      <c r="G28" s="1" t="inlineStr">
+        <is>
+          <t>150/194</t>
+        </is>
+      </c>
       <c r="H28" s="1" t="n"/>
-      <c r="I28" s="1" t="n"/>
-      <c r="J28" s="1" t="n"/>
-      <c r="K28" s="1" t="n"/>
+      <c r="I28" s="1" t="inlineStr">
+        <is>
+          <t>34/42</t>
+        </is>
+      </c>
+      <c r="J28" s="1" t="inlineStr">
+        <is>
+          <t>134/238</t>
+        </is>
+      </c>
+      <c r="K28" s="1" t="inlineStr">
+        <is>
+          <t>32/80</t>
+        </is>
+      </c>
       <c r="L28" s="1" t="n"/>
-      <c r="M28" s="1" t="n"/>
+      <c r="M28" s="1" t="inlineStr">
+        <is>
+          <t>132/256</t>
+        </is>
+      </c>
       <c r="N28" s="1" t="n"/>
       <c r="O28" s="1" t="n"/>
       <c r="P28" s="1" t="n"/>
@@ -1406,25 +2320,67 @@
       <c r="W28" s="1" t="n"/>
       <c r="X28" s="1" t="n"/>
       <c r="Y28" s="1" t="n"/>
-      <c r="Z28" s="1" t="n"/>
-      <c r="AA28" s="1" t="n"/>
-      <c r="AB28" s="2" t="n"/>
+      <c r="Z28" s="1" t="n">
+        <v>-0.1185</v>
+      </c>
+      <c r="AA28" s="1" t="n">
+        <v>0.1812</v>
+      </c>
+      <c r="AB28" s="2" t="n">
+        <v>0.0167</v>
+      </c>
       <c r="AC28" s="2" t="n"/>
     </row>
     <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="n"/>
-      <c r="C29" s="1" t="n"/>
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>LH</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>55</v>
+      </c>
       <c r="D29" s="1" t="n"/>
-      <c r="E29" s="1" t="n"/>
-      <c r="F29" s="1" t="n"/>
-      <c r="G29" s="1" t="n"/>
+      <c r="E29" s="1" t="inlineStr">
+        <is>
+          <t>20/40</t>
+        </is>
+      </c>
+      <c r="F29" s="1" t="inlineStr">
+        <is>
+          <t>120/170</t>
+        </is>
+      </c>
+      <c r="G29" s="1" t="inlineStr">
+        <is>
+          <t>110/238</t>
+        </is>
+      </c>
       <c r="H29" s="1" t="n"/>
-      <c r="I29" s="1" t="n"/>
-      <c r="J29" s="1" t="n"/>
-      <c r="K29" s="1" t="n"/>
+      <c r="I29" s="1" t="inlineStr">
+        <is>
+          <t>20/42</t>
+        </is>
+      </c>
+      <c r="J29" s="1" t="inlineStr">
+        <is>
+          <t>168/200</t>
+        </is>
+      </c>
+      <c r="K29" s="1" t="inlineStr">
+        <is>
+          <t>176/182</t>
+        </is>
+      </c>
       <c r="L29" s="1" t="n"/>
-      <c r="M29" s="1" t="n"/>
+      <c r="M29" s="1" t="inlineStr">
+        <is>
+          <t>22/32</t>
+        </is>
+      </c>
       <c r="N29" s="1" t="n"/>
       <c r="O29" s="1" t="n"/>
       <c r="P29" s="1" t="n"/>
@@ -1437,25 +2393,67 @@
       <c r="W29" s="1" t="n"/>
       <c r="X29" s="1" t="n"/>
       <c r="Y29" s="1" t="n"/>
-      <c r="Z29" s="1" t="n"/>
-      <c r="AA29" s="1" t="n"/>
-      <c r="AB29" s="2" t="n"/>
+      <c r="Z29" s="1" t="n">
+        <v>0.1153</v>
+      </c>
+      <c r="AA29" s="1" t="n">
+        <v>-0.9184</v>
+      </c>
+      <c r="AB29" s="2" t="n">
+        <v>0.2351</v>
+      </c>
       <c r="AC29" s="2" t="n"/>
     </row>
     <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="n"/>
-      <c r="C30" s="1" t="n"/>
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>LJ</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>40</v>
+      </c>
       <c r="D30" s="1" t="n"/>
-      <c r="E30" s="1" t="n"/>
-      <c r="F30" s="1" t="n"/>
-      <c r="G30" s="1" t="n"/>
+      <c r="E30" s="1" t="inlineStr">
+        <is>
+          <t>160/186</t>
+        </is>
+      </c>
+      <c r="F30" s="1" t="inlineStr">
+        <is>
+          <t>116/198</t>
+        </is>
+      </c>
+      <c r="G30" s="1" t="inlineStr">
+        <is>
+          <t>60/220</t>
+        </is>
+      </c>
       <c r="H30" s="1" t="n"/>
-      <c r="I30" s="1" t="n"/>
-      <c r="J30" s="1" t="n"/>
-      <c r="K30" s="1" t="n"/>
+      <c r="I30" s="1" t="inlineStr">
+        <is>
+          <t>162/174</t>
+        </is>
+      </c>
+      <c r="J30" s="1" t="inlineStr">
+        <is>
+          <t>152/230</t>
+        </is>
+      </c>
+      <c r="K30" s="1" t="inlineStr">
+        <is>
+          <t>56/230</t>
+        </is>
+      </c>
       <c r="L30" s="1" t="n"/>
-      <c r="M30" s="1" t="n"/>
+      <c r="M30" s="1" t="inlineStr">
+        <is>
+          <t>172/190</t>
+        </is>
+      </c>
       <c r="N30" s="1" t="n"/>
       <c r="O30" s="1" t="n"/>
       <c r="P30" s="1" t="n"/>
@@ -1468,25 +2466,55 @@
       <c r="W30" s="1" t="n"/>
       <c r="X30" s="1" t="n"/>
       <c r="Y30" s="1" t="n"/>
-      <c r="Z30" s="1" t="n"/>
-      <c r="AA30" s="1" t="n"/>
-      <c r="AB30" s="2" t="n"/>
+      <c r="Z30" s="1" t="n">
+        <v>0.5231</v>
+      </c>
+      <c r="AA30" s="1" t="n">
+        <v>0.3894</v>
+      </c>
+      <c r="AB30" s="2" t="n">
+        <v>0.4036</v>
+      </c>
       <c r="AC30" s="2" t="n"/>
     </row>
     <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="n"/>
-      <c r="C31" s="1" t="n"/>
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>LZ</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>42.9</v>
+      </c>
       <c r="D31" s="1" t="n"/>
-      <c r="E31" s="1" t="n"/>
+      <c r="E31" s="1" t="inlineStr">
+        <is>
+          <t>148/174</t>
+        </is>
+      </c>
       <c r="F31" s="1" t="n"/>
       <c r="G31" s="1" t="n"/>
       <c r="H31" s="1" t="n"/>
-      <c r="I31" s="1" t="n"/>
-      <c r="J31" s="1" t="n"/>
+      <c r="I31" s="1" t="inlineStr">
+        <is>
+          <t>148/176</t>
+        </is>
+      </c>
+      <c r="J31" s="1" t="inlineStr">
+        <is>
+          <t>24/152</t>
+        </is>
+      </c>
       <c r="K31" s="1" t="n"/>
       <c r="L31" s="1" t="n"/>
-      <c r="M31" s="1" t="n"/>
+      <c r="M31" s="1" t="inlineStr">
+        <is>
+          <t>156/158</t>
+        </is>
+      </c>
       <c r="N31" s="1" t="n"/>
       <c r="O31" s="1" t="n"/>
       <c r="P31" s="1" t="n"/>
@@ -1499,25 +2527,67 @@
       <c r="W31" s="1" t="n"/>
       <c r="X31" s="1" t="n"/>
       <c r="Y31" s="1" t="n"/>
-      <c r="Z31" s="1" t="n"/>
-      <c r="AA31" s="1" t="n"/>
-      <c r="AB31" s="2" t="n"/>
+      <c r="Z31" s="1" t="n">
+        <v>-0.1947</v>
+      </c>
+      <c r="AA31" s="1" t="n">
+        <v>-0.0054</v>
+      </c>
+      <c r="AB31" s="2" t="n">
+        <v>-0.2527</v>
+      </c>
       <c r="AC31" s="2" t="n"/>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="n"/>
-      <c r="C32" s="1" t="n"/>
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>MME</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>47.4</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>47.4</v>
+      </c>
       <c r="D32" s="1" t="n"/>
-      <c r="E32" s="1" t="n"/>
-      <c r="F32" s="1" t="n"/>
-      <c r="G32" s="1" t="n"/>
+      <c r="E32" s="1" t="inlineStr">
+        <is>
+          <t>26/54</t>
+        </is>
+      </c>
+      <c r="F32" s="1" t="inlineStr">
+        <is>
+          <t>222/250</t>
+        </is>
+      </c>
+      <c r="G32" s="1" t="inlineStr">
+        <is>
+          <t>30/106</t>
+        </is>
+      </c>
       <c r="H32" s="1" t="n"/>
-      <c r="I32" s="1" t="n"/>
-      <c r="J32" s="1" t="n"/>
-      <c r="K32" s="1" t="n"/>
+      <c r="I32" s="1" t="inlineStr">
+        <is>
+          <t>22/62</t>
+        </is>
+      </c>
+      <c r="J32" s="1" t="inlineStr">
+        <is>
+          <t>222/244</t>
+        </is>
+      </c>
+      <c r="K32" s="1" t="inlineStr">
+        <is>
+          <t>230/234</t>
+        </is>
+      </c>
       <c r="L32" s="1" t="n"/>
-      <c r="M32" s="1" t="n"/>
+      <c r="M32" s="1" t="inlineStr">
+        <is>
+          <t>42/46</t>
+        </is>
+      </c>
       <c r="N32" s="1" t="n"/>
       <c r="O32" s="1" t="n"/>
       <c r="P32" s="1" t="n"/>
@@ -1530,25 +2600,67 @@
       <c r="W32" s="1" t="n"/>
       <c r="X32" s="1" t="n"/>
       <c r="Y32" s="1" t="n"/>
-      <c r="Z32" s="1" t="n"/>
-      <c r="AA32" s="1" t="n"/>
-      <c r="AB32" s="2" t="n"/>
+      <c r="Z32" s="1" t="n">
+        <v>0.2991</v>
+      </c>
+      <c r="AA32" s="1" t="n">
+        <v>0.0395</v>
+      </c>
+      <c r="AB32" s="2" t="n">
+        <v>-0.2412</v>
+      </c>
       <c r="AC32" s="2" t="n"/>
     </row>
     <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="1" t="n"/>
-      <c r="B33" s="1" t="n"/>
-      <c r="C33" s="1" t="n"/>
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>MP1</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>55.6</v>
+      </c>
       <c r="D33" s="1" t="n"/>
-      <c r="E33" s="1" t="n"/>
-      <c r="F33" s="1" t="n"/>
-      <c r="G33" s="1" t="n"/>
+      <c r="E33" s="1" t="inlineStr">
+        <is>
+          <t>282/294</t>
+        </is>
+      </c>
+      <c r="F33" s="1" t="inlineStr">
+        <is>
+          <t>126/188</t>
+        </is>
+      </c>
+      <c r="G33" s="1" t="inlineStr">
+        <is>
+          <t>18/156</t>
+        </is>
+      </c>
       <c r="H33" s="1" t="n"/>
-      <c r="I33" s="1" t="n"/>
-      <c r="J33" s="1" t="n"/>
-      <c r="K33" s="1" t="n"/>
+      <c r="I33" s="1" t="inlineStr">
+        <is>
+          <t>282/294</t>
+        </is>
+      </c>
+      <c r="J33" s="1" t="inlineStr">
+        <is>
+          <t>130/188</t>
+        </is>
+      </c>
+      <c r="K33" s="1" t="inlineStr">
+        <is>
+          <t>152/162</t>
+        </is>
+      </c>
       <c r="L33" s="1" t="n"/>
-      <c r="M33" s="1" t="n"/>
+      <c r="M33" s="1" t="inlineStr">
+        <is>
+          <t>134/138</t>
+        </is>
+      </c>
       <c r="N33" s="1" t="n"/>
       <c r="O33" s="1" t="n"/>
       <c r="P33" s="1" t="n"/>
@@ -1561,25 +2673,59 @@
       <c r="W33" s="1" t="n"/>
       <c r="X33" s="1" t="n"/>
       <c r="Y33" s="1" t="n"/>
-      <c r="Z33" s="1" t="n"/>
-      <c r="AA33" s="1" t="n"/>
-      <c r="AB33" s="2" t="n"/>
+      <c r="Z33" s="1" t="n">
+        <v>0.1651</v>
+      </c>
+      <c r="AA33" s="1" t="n">
+        <v>0.4869</v>
+      </c>
+      <c r="AB33" s="2" t="n">
+        <v>0.2612</v>
+      </c>
       <c r="AC33" s="2" t="n"/>
     </row>
     <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="1" t="n"/>
-      <c r="B34" s="1" t="n"/>
-      <c r="C34" s="1" t="n"/>
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>NE1</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>55.6</v>
+      </c>
       <c r="D34" s="1" t="n"/>
-      <c r="E34" s="1" t="n"/>
-      <c r="F34" s="1" t="n"/>
+      <c r="E34" s="1" t="inlineStr">
+        <is>
+          <t>254/282</t>
+        </is>
+      </c>
+      <c r="F34" s="1" t="inlineStr">
+        <is>
+          <t>146/276</t>
+        </is>
+      </c>
       <c r="G34" s="1" t="n"/>
       <c r="H34" s="1" t="n"/>
-      <c r="I34" s="1" t="n"/>
-      <c r="J34" s="1" t="n"/>
+      <c r="I34" s="1" t="inlineStr">
+        <is>
+          <t>252/282</t>
+        </is>
+      </c>
+      <c r="J34" s="1" t="inlineStr">
+        <is>
+          <t>156/274</t>
+        </is>
+      </c>
       <c r="K34" s="1" t="n"/>
       <c r="L34" s="1" t="n"/>
-      <c r="M34" s="1" t="n"/>
+      <c r="M34" s="1" t="inlineStr">
+        <is>
+          <t>158/288</t>
+        </is>
+      </c>
       <c r="N34" s="1" t="n"/>
       <c r="O34" s="1" t="n"/>
       <c r="P34" s="1" t="n"/>
@@ -1592,25 +2738,67 @@
       <c r="W34" s="1" t="n"/>
       <c r="X34" s="1" t="n"/>
       <c r="Y34" s="1" t="n"/>
-      <c r="Z34" s="1" t="n"/>
-      <c r="AA34" s="1" t="n"/>
-      <c r="AB34" s="2" t="n"/>
+      <c r="Z34" s="1" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="AA34" s="1" t="n">
+        <v>0.2976</v>
+      </c>
+      <c r="AB34" s="2" t="n">
+        <v>0.4778</v>
+      </c>
       <c r="AC34" s="2" t="n"/>
     </row>
     <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="1" t="n"/>
-      <c r="B35" s="1" t="n"/>
-      <c r="C35" s="1" t="n"/>
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>NG</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>61.5</v>
+      </c>
       <c r="D35" s="1" t="n"/>
-      <c r="E35" s="1" t="n"/>
-      <c r="F35" s="1" t="n"/>
-      <c r="G35" s="1" t="n"/>
+      <c r="E35" s="1" t="inlineStr">
+        <is>
+          <t>44/242</t>
+        </is>
+      </c>
+      <c r="F35" s="1" t="inlineStr">
+        <is>
+          <t>62/124</t>
+        </is>
+      </c>
+      <c r="G35" s="1" t="inlineStr">
+        <is>
+          <t>52/80</t>
+        </is>
+      </c>
       <c r="H35" s="1" t="n"/>
-      <c r="I35" s="1" t="n"/>
-      <c r="J35" s="1" t="n"/>
-      <c r="K35" s="1" t="n"/>
+      <c r="I35" s="1" t="inlineStr">
+        <is>
+          <t>44/230</t>
+        </is>
+      </c>
+      <c r="J35" s="1" t="inlineStr">
+        <is>
+          <t>66/156</t>
+        </is>
+      </c>
+      <c r="K35" s="1" t="inlineStr">
+        <is>
+          <t>60/70</t>
+        </is>
+      </c>
       <c r="L35" s="1" t="n"/>
-      <c r="M35" s="1" t="n"/>
+      <c r="M35" s="1" t="inlineStr">
+        <is>
+          <t>38/96</t>
+        </is>
+      </c>
       <c r="N35" s="1" t="n"/>
       <c r="O35" s="1" t="n"/>
       <c r="P35" s="1" t="n"/>
@@ -1623,25 +2811,63 @@
       <c r="W35" s="1" t="n"/>
       <c r="X35" s="1" t="n"/>
       <c r="Y35" s="1" t="n"/>
-      <c r="Z35" s="1" t="n"/>
-      <c r="AA35" s="1" t="n"/>
-      <c r="AB35" s="2" t="n"/>
+      <c r="Z35" s="1" t="n">
+        <v>-0.397</v>
+      </c>
+      <c r="AA35" s="1" t="n">
+        <v>-0.0742</v>
+      </c>
+      <c r="AB35" s="2" t="n">
+        <v>-0.1264</v>
+      </c>
       <c r="AC35" s="2" t="n"/>
     </row>
     <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="1" t="n"/>
-      <c r="B36" s="1" t="n"/>
-      <c r="C36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>NK</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>57.9</v>
+      </c>
       <c r="D36" s="1" t="n"/>
-      <c r="E36" s="1" t="n"/>
-      <c r="F36" s="1" t="n"/>
-      <c r="G36" s="1" t="n"/>
+      <c r="E36" s="1" t="inlineStr">
+        <is>
+          <t>160/198</t>
+        </is>
+      </c>
+      <c r="F36" s="1" t="inlineStr">
+        <is>
+          <t>130/218</t>
+        </is>
+      </c>
+      <c r="G36" s="1" t="inlineStr">
+        <is>
+          <t>68/250</t>
+        </is>
+      </c>
       <c r="H36" s="1" t="n"/>
-      <c r="I36" s="1" t="n"/>
-      <c r="J36" s="1" t="n"/>
+      <c r="I36" s="1" t="inlineStr">
+        <is>
+          <t>160/190</t>
+        </is>
+      </c>
+      <c r="J36" s="1" t="inlineStr">
+        <is>
+          <t>100/228</t>
+        </is>
+      </c>
       <c r="K36" s="1" t="n"/>
       <c r="L36" s="1" t="n"/>
-      <c r="M36" s="1" t="n"/>
+      <c r="M36" s="1" t="inlineStr">
+        <is>
+          <t>20/22</t>
+        </is>
+      </c>
       <c r="N36" s="1" t="n"/>
       <c r="O36" s="1" t="n"/>
       <c r="P36" s="1" t="n"/>
@@ -1654,25 +2880,67 @@
       <c r="W36" s="1" t="n"/>
       <c r="X36" s="1" t="n"/>
       <c r="Y36" s="1" t="n"/>
-      <c r="Z36" s="1" t="n"/>
-      <c r="AA36" s="1" t="n"/>
-      <c r="AB36" s="2" t="n"/>
+      <c r="Z36" s="1" t="n">
+        <v>-0.0843</v>
+      </c>
+      <c r="AA36" s="1" t="n">
+        <v>0.5531</v>
+      </c>
+      <c r="AB36" s="2" t="n">
+        <v>0.4892</v>
+      </c>
       <c r="AC36" s="2" t="n"/>
     </row>
     <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="1" t="n"/>
-      <c r="B37" s="1" t="n"/>
-      <c r="C37" s="1" t="n"/>
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>NQ</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>60</v>
+      </c>
       <c r="D37" s="1" t="n"/>
-      <c r="E37" s="1" t="n"/>
-      <c r="F37" s="1" t="n"/>
-      <c r="G37" s="1" t="n"/>
+      <c r="E37" s="1" t="inlineStr">
+        <is>
+          <t>218/248</t>
+        </is>
+      </c>
+      <c r="F37" s="1" t="inlineStr">
+        <is>
+          <t>110/166</t>
+        </is>
+      </c>
+      <c r="G37" s="1" t="inlineStr">
+        <is>
+          <t>258/282</t>
+        </is>
+      </c>
       <c r="H37" s="1" t="n"/>
-      <c r="I37" s="1" t="n"/>
-      <c r="J37" s="1" t="n"/>
-      <c r="K37" s="1" t="n"/>
+      <c r="I37" s="1" t="inlineStr">
+        <is>
+          <t>212/236</t>
+        </is>
+      </c>
+      <c r="J37" s="1" t="inlineStr">
+        <is>
+          <t>238/276</t>
+        </is>
+      </c>
+      <c r="K37" s="1" t="inlineStr">
+        <is>
+          <t>104/170</t>
+        </is>
+      </c>
       <c r="L37" s="1" t="n"/>
-      <c r="M37" s="1" t="n"/>
+      <c r="M37" s="1" t="inlineStr">
+        <is>
+          <t>210/234</t>
+        </is>
+      </c>
       <c r="N37" s="1" t="n"/>
       <c r="O37" s="1" t="n"/>
       <c r="P37" s="1" t="n"/>
@@ -1685,25 +2953,67 @@
       <c r="W37" s="1" t="n"/>
       <c r="X37" s="1" t="n"/>
       <c r="Y37" s="1" t="n"/>
-      <c r="Z37" s="1" t="n"/>
-      <c r="AA37" s="1" t="n"/>
-      <c r="AB37" s="2" t="n"/>
+      <c r="Z37" s="1" t="n">
+        <v>0.0294</v>
+      </c>
+      <c r="AA37" s="1" t="n">
+        <v>0.1596</v>
+      </c>
+      <c r="AB37" s="2" t="n">
+        <v>0.3063</v>
+      </c>
       <c r="AC37" s="2" t="n"/>
     </row>
     <row r="38" ht="15" customHeight="1">
-      <c r="A38" s="1" t="n"/>
-      <c r="B38" s="1" t="n"/>
-      <c r="C38" s="1" t="n"/>
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>60</v>
+      </c>
       <c r="D38" s="1" t="n"/>
-      <c r="E38" s="1" t="n"/>
-      <c r="F38" s="1" t="n"/>
-      <c r="G38" s="1" t="n"/>
+      <c r="E38" s="1" t="inlineStr">
+        <is>
+          <t>102/180</t>
+        </is>
+      </c>
+      <c r="F38" s="1" t="inlineStr">
+        <is>
+          <t>50/162</t>
+        </is>
+      </c>
+      <c r="G38" s="1" t="inlineStr">
+        <is>
+          <t>26/252</t>
+        </is>
+      </c>
       <c r="H38" s="1" t="n"/>
-      <c r="I38" s="1" t="n"/>
-      <c r="J38" s="1" t="n"/>
-      <c r="K38" s="1" t="n"/>
+      <c r="I38" s="1" t="inlineStr">
+        <is>
+          <t>42/262</t>
+        </is>
+      </c>
+      <c r="J38" s="1" t="inlineStr">
+        <is>
+          <t>88/160</t>
+        </is>
+      </c>
+      <c r="K38" s="1" t="inlineStr">
+        <is>
+          <t>134/142</t>
+        </is>
+      </c>
       <c r="L38" s="1" t="n"/>
-      <c r="M38" s="1" t="n"/>
+      <c r="M38" s="1" t="inlineStr">
+        <is>
+          <t>112/174</t>
+        </is>
+      </c>
       <c r="N38" s="1" t="n"/>
       <c r="O38" s="1" t="n"/>
       <c r="P38" s="1" t="n"/>
@@ -1716,25 +3026,51 @@
       <c r="W38" s="1" t="n"/>
       <c r="X38" s="1" t="n"/>
       <c r="Y38" s="1" t="n"/>
-      <c r="Z38" s="1" t="n"/>
-      <c r="AA38" s="1" t="n"/>
-      <c r="AB38" s="2" t="n"/>
+      <c r="Z38" s="1" t="n">
+        <v>0.2816</v>
+      </c>
+      <c r="AA38" s="1" t="n">
+        <v>-0.0747</v>
+      </c>
+      <c r="AB38" s="2" t="n">
+        <v>-0.0939</v>
+      </c>
       <c r="AC38" s="2" t="n"/>
     </row>
     <row r="39" ht="15" customHeight="1">
-      <c r="A39" s="1" t="n"/>
-      <c r="B39" s="1" t="n"/>
-      <c r="C39" s="1" t="n"/>
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>33.3</v>
+      </c>
       <c r="D39" s="1" t="n"/>
-      <c r="E39" s="1" t="n"/>
+      <c r="E39" s="1" t="inlineStr">
+        <is>
+          <t>122/142</t>
+        </is>
+      </c>
       <c r="F39" s="1" t="n"/>
       <c r="G39" s="1" t="n"/>
       <c r="H39" s="1" t="n"/>
-      <c r="I39" s="1" t="n"/>
+      <c r="I39" s="1" t="inlineStr">
+        <is>
+          <t>44/54</t>
+        </is>
+      </c>
       <c r="J39" s="1" t="n"/>
       <c r="K39" s="1" t="n"/>
       <c r="L39" s="1" t="n"/>
-      <c r="M39" s="1" t="n"/>
+      <c r="M39" s="1" t="inlineStr">
+        <is>
+          <t>122/126</t>
+        </is>
+      </c>
       <c r="N39" s="1" t="n"/>
       <c r="O39" s="1" t="n"/>
       <c r="P39" s="1" t="n"/>
@@ -1747,25 +3083,59 @@
       <c r="W39" s="1" t="n"/>
       <c r="X39" s="1" t="n"/>
       <c r="Y39" s="1" t="n"/>
-      <c r="Z39" s="1" t="n"/>
-      <c r="AA39" s="1" t="n"/>
-      <c r="AB39" s="2" t="n"/>
+      <c r="Z39" s="1" t="n">
+        <v>-0.1046</v>
+      </c>
+      <c r="AA39" s="1" t="n">
+        <v>-0.2544</v>
+      </c>
+      <c r="AB39" s="2" t="n">
+        <v>-0.6528</v>
+      </c>
       <c r="AC39" s="2" t="n"/>
     </row>
     <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="1" t="n"/>
-      <c r="B40" s="1" t="n"/>
-      <c r="C40" s="1" t="n"/>
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>RB</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>62.5</v>
+      </c>
       <c r="D40" s="1" t="n"/>
-      <c r="E40" s="1" t="n"/>
-      <c r="F40" s="1" t="n"/>
+      <c r="E40" s="1" t="inlineStr">
+        <is>
+          <t>36/86</t>
+        </is>
+      </c>
+      <c r="F40" s="1" t="inlineStr">
+        <is>
+          <t>162/212</t>
+        </is>
+      </c>
       <c r="G40" s="1" t="n"/>
       <c r="H40" s="1" t="n"/>
-      <c r="I40" s="1" t="n"/>
-      <c r="J40" s="1" t="n"/>
+      <c r="I40" s="1" t="inlineStr">
+        <is>
+          <t>40/66</t>
+        </is>
+      </c>
+      <c r="J40" s="1" t="inlineStr">
+        <is>
+          <t>30/102</t>
+        </is>
+      </c>
       <c r="K40" s="1" t="n"/>
       <c r="L40" s="1" t="n"/>
-      <c r="M40" s="1" t="n"/>
+      <c r="M40" s="1" t="inlineStr">
+        <is>
+          <t>42/50</t>
+        </is>
+      </c>
       <c r="N40" s="1" t="n"/>
       <c r="O40" s="1" t="n"/>
       <c r="P40" s="1" t="n"/>
@@ -1778,25 +3148,55 @@
       <c r="W40" s="1" t="n"/>
       <c r="X40" s="1" t="n"/>
       <c r="Y40" s="1" t="n"/>
-      <c r="Z40" s="1" t="n"/>
-      <c r="AA40" s="1" t="n"/>
-      <c r="AB40" s="2" t="n"/>
+      <c r="Z40" s="1" t="n">
+        <v>-0.4045</v>
+      </c>
+      <c r="AA40" s="1" t="n">
+        <v>0.3493</v>
+      </c>
+      <c r="AB40" s="2" t="n">
+        <v>-0.194</v>
+      </c>
       <c r="AC40" s="2" t="n"/>
     </row>
     <row r="41" ht="15" customHeight="1">
-      <c r="A41" s="1" t="n"/>
-      <c r="B41" s="1" t="n"/>
-      <c r="C41" s="1" t="n"/>
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>RTY</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>53.8</v>
+      </c>
       <c r="D41" s="1" t="n"/>
-      <c r="E41" s="1" t="n"/>
+      <c r="E41" s="1" t="inlineStr">
+        <is>
+          <t>214/232</t>
+        </is>
+      </c>
       <c r="F41" s="1" t="n"/>
       <c r="G41" s="1" t="n"/>
       <c r="H41" s="1" t="n"/>
-      <c r="I41" s="1" t="n"/>
-      <c r="J41" s="1" t="n"/>
+      <c r="I41" s="1" t="inlineStr">
+        <is>
+          <t>118/148</t>
+        </is>
+      </c>
+      <c r="J41" s="1" t="inlineStr">
+        <is>
+          <t>214/232</t>
+        </is>
+      </c>
       <c r="K41" s="1" t="n"/>
       <c r="L41" s="1" t="n"/>
-      <c r="M41" s="1" t="n"/>
+      <c r="M41" s="1" t="inlineStr">
+        <is>
+          <t>122/142</t>
+        </is>
+      </c>
       <c r="N41" s="1" t="n"/>
       <c r="O41" s="1" t="n"/>
       <c r="P41" s="1" t="n"/>
@@ -1809,25 +3209,67 @@
       <c r="W41" s="1" t="n"/>
       <c r="X41" s="1" t="n"/>
       <c r="Y41" s="1" t="n"/>
-      <c r="Z41" s="1" t="n"/>
-      <c r="AA41" s="1" t="n"/>
-      <c r="AB41" s="2" t="n"/>
+      <c r="Z41" s="1" t="n">
+        <v>-0.1847</v>
+      </c>
+      <c r="AA41" s="1" t="n">
+        <v>0.3164</v>
+      </c>
+      <c r="AB41" s="2" t="n">
+        <v>0.2332</v>
+      </c>
       <c r="AC41" s="2" t="n"/>
     </row>
     <row r="42" ht="15" customHeight="1">
-      <c r="A42" s="1" t="n"/>
-      <c r="B42" s="1" t="n"/>
-      <c r="C42" s="1" t="n"/>
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>25</v>
+      </c>
       <c r="D42" s="1" t="n"/>
-      <c r="E42" s="1" t="n"/>
-      <c r="F42" s="1" t="n"/>
-      <c r="G42" s="1" t="n"/>
+      <c r="E42" s="1" t="inlineStr">
+        <is>
+          <t>162/204</t>
+        </is>
+      </c>
+      <c r="F42" s="1" t="inlineStr">
+        <is>
+          <t>44/182</t>
+        </is>
+      </c>
+      <c r="G42" s="1" t="inlineStr">
+        <is>
+          <t>42/102</t>
+        </is>
+      </c>
       <c r="H42" s="1" t="n"/>
-      <c r="I42" s="1" t="n"/>
-      <c r="J42" s="1" t="n"/>
-      <c r="K42" s="1" t="n"/>
+      <c r="I42" s="1" t="inlineStr">
+        <is>
+          <t>162/206</t>
+        </is>
+      </c>
+      <c r="J42" s="1" t="inlineStr">
+        <is>
+          <t>52/184</t>
+        </is>
+      </c>
+      <c r="K42" s="1" t="inlineStr">
+        <is>
+          <t>44/94</t>
+        </is>
+      </c>
       <c r="L42" s="1" t="n"/>
-      <c r="M42" s="1" t="n"/>
+      <c r="M42" s="1" t="inlineStr">
+        <is>
+          <t>180/184</t>
+        </is>
+      </c>
       <c r="N42" s="1" t="n"/>
       <c r="O42" s="1" t="n"/>
       <c r="P42" s="1" t="n"/>
@@ -1840,25 +3282,67 @@
       <c r="W42" s="1" t="n"/>
       <c r="X42" s="1" t="n"/>
       <c r="Y42" s="1" t="n"/>
-      <c r="Z42" s="1" t="n"/>
-      <c r="AA42" s="1" t="n"/>
-      <c r="AB42" s="2" t="n"/>
+      <c r="Z42" s="1" t="n">
+        <v>0.9709</v>
+      </c>
+      <c r="AA42" s="1" t="n">
+        <v>-0.3876</v>
+      </c>
+      <c r="AB42" s="2" t="n">
+        <v>-0.2854</v>
+      </c>
       <c r="AC42" s="2" t="n"/>
     </row>
     <row r="43" ht="15" customHeight="1">
-      <c r="A43" s="1" t="n"/>
-      <c r="B43" s="1" t="n"/>
-      <c r="C43" s="1" t="n"/>
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>SB</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>30.8</v>
+      </c>
       <c r="D43" s="1" t="n"/>
-      <c r="E43" s="1" t="n"/>
-      <c r="F43" s="1" t="n"/>
-      <c r="G43" s="1" t="n"/>
+      <c r="E43" s="1" t="inlineStr">
+        <is>
+          <t>164/204</t>
+        </is>
+      </c>
+      <c r="F43" s="1" t="inlineStr">
+        <is>
+          <t>44/182</t>
+        </is>
+      </c>
+      <c r="G43" s="1" t="inlineStr">
+        <is>
+          <t>140/254</t>
+        </is>
+      </c>
       <c r="H43" s="1" t="n"/>
-      <c r="I43" s="1" t="n"/>
-      <c r="J43" s="1" t="n"/>
-      <c r="K43" s="1" t="n"/>
+      <c r="I43" s="1" t="inlineStr">
+        <is>
+          <t>162/206</t>
+        </is>
+      </c>
+      <c r="J43" s="1" t="inlineStr">
+        <is>
+          <t>30/256</t>
+        </is>
+      </c>
+      <c r="K43" s="1" t="inlineStr">
+        <is>
+          <t>56/192</t>
+        </is>
+      </c>
       <c r="L43" s="1" t="n"/>
-      <c r="M43" s="1" t="n"/>
+      <c r="M43" s="1" t="inlineStr">
+        <is>
+          <t>180/184</t>
+        </is>
+      </c>
       <c r="N43" s="1" t="n"/>
       <c r="O43" s="1" t="n"/>
       <c r="P43" s="1" t="n"/>
@@ -1871,25 +3355,55 @@
       <c r="W43" s="1" t="n"/>
       <c r="X43" s="1" t="n"/>
       <c r="Y43" s="1" t="n"/>
-      <c r="Z43" s="1" t="n"/>
-      <c r="AA43" s="1" t="n"/>
-      <c r="AB43" s="2" t="n"/>
+      <c r="Z43" s="1" t="n">
+        <v>0.9724</v>
+      </c>
+      <c r="AA43" s="1" t="n">
+        <v>0.0407</v>
+      </c>
+      <c r="AB43" s="2" t="n">
+        <v>-0.0786</v>
+      </c>
       <c r="AC43" s="2" t="n"/>
     </row>
     <row r="44" ht="15" customHeight="1">
-      <c r="A44" s="1" t="n"/>
-      <c r="B44" s="1" t="n"/>
-      <c r="C44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>55.6</v>
+      </c>
       <c r="D44" s="1" t="n"/>
-      <c r="E44" s="1" t="n"/>
+      <c r="E44" s="1" t="inlineStr">
+        <is>
+          <t>40/148</t>
+        </is>
+      </c>
       <c r="F44" s="1" t="n"/>
       <c r="G44" s="1" t="n"/>
       <c r="H44" s="1" t="n"/>
-      <c r="I44" s="1" t="n"/>
-      <c r="J44" s="1" t="n"/>
+      <c r="I44" s="1" t="inlineStr">
+        <is>
+          <t>34/156</t>
+        </is>
+      </c>
+      <c r="J44" s="1" t="inlineStr">
+        <is>
+          <t>40/246</t>
+        </is>
+      </c>
       <c r="K44" s="1" t="n"/>
       <c r="L44" s="1" t="n"/>
-      <c r="M44" s="1" t="n"/>
+      <c r="M44" s="1" t="inlineStr">
+        <is>
+          <t>48/50</t>
+        </is>
+      </c>
       <c r="N44" s="1" t="n"/>
       <c r="O44" s="1" t="n"/>
       <c r="P44" s="1" t="n"/>
@@ -1902,17 +3416,33 @@
       <c r="W44" s="1" t="n"/>
       <c r="X44" s="1" t="n"/>
       <c r="Y44" s="1" t="n"/>
-      <c r="Z44" s="1" t="n"/>
-      <c r="AA44" s="1" t="n"/>
-      <c r="AB44" s="2" t="n"/>
+      <c r="Z44" s="1" t="n">
+        <v>-0.4083</v>
+      </c>
+      <c r="AA44" s="1" t="n">
+        <v>-0.469</v>
+      </c>
+      <c r="AB44" s="2" t="n">
+        <v>-0.3194</v>
+      </c>
       <c r="AC44" s="2" t="n"/>
     </row>
     <row r="45" ht="15" customHeight="1">
-      <c r="A45" s="1" t="n"/>
-      <c r="B45" s="1" t="n"/>
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>SM</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>46.7</v>
+      </c>
       <c r="C45" s="1" t="n"/>
       <c r="D45" s="1" t="n"/>
-      <c r="E45" s="1" t="n"/>
+      <c r="E45" s="1" t="inlineStr">
+        <is>
+          <t>40/76</t>
+        </is>
+      </c>
       <c r="F45" s="1" t="n"/>
       <c r="G45" s="1" t="n"/>
       <c r="H45" s="1" t="n"/>
@@ -1920,7 +3450,11 @@
       <c r="J45" s="1" t="n"/>
       <c r="K45" s="1" t="n"/>
       <c r="L45" s="1" t="n"/>
-      <c r="M45" s="1" t="n"/>
+      <c r="M45" s="1" t="inlineStr">
+        <is>
+          <t>70/74</t>
+        </is>
+      </c>
       <c r="N45" s="1" t="n"/>
       <c r="O45" s="1" t="n"/>
       <c r="P45" s="1" t="n"/>
@@ -1933,25 +3467,65 @@
       <c r="W45" s="1" t="n"/>
       <c r="X45" s="1" t="n"/>
       <c r="Y45" s="1" t="n"/>
-      <c r="Z45" s="1" t="n"/>
-      <c r="AA45" s="1" t="n"/>
+      <c r="Z45" s="1" t="n">
+        <v>-0.8993</v>
+      </c>
+      <c r="AA45" s="1" t="n">
+        <v>-0.8689</v>
+      </c>
       <c r="AB45" s="2" t="n"/>
       <c r="AC45" s="2" t="n"/>
     </row>
     <row r="46" ht="15" customHeight="1">
-      <c r="A46" s="1" t="n"/>
-      <c r="B46" s="1" t="n"/>
-      <c r="C46" s="1" t="n"/>
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>TEN</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>71.40000000000001</v>
+      </c>
       <c r="D46" s="1" t="n"/>
-      <c r="E46" s="1" t="n"/>
-      <c r="F46" s="1" t="n"/>
-      <c r="G46" s="1" t="n"/>
+      <c r="E46" s="1" t="inlineStr">
+        <is>
+          <t>34/74</t>
+        </is>
+      </c>
+      <c r="F46" s="1" t="inlineStr">
+        <is>
+          <t>48/108</t>
+        </is>
+      </c>
+      <c r="G46" s="1" t="inlineStr">
+        <is>
+          <t>16/30</t>
+        </is>
+      </c>
       <c r="H46" s="1" t="n"/>
-      <c r="I46" s="1" t="n"/>
-      <c r="J46" s="1" t="n"/>
-      <c r="K46" s="1" t="n"/>
+      <c r="I46" s="1" t="inlineStr">
+        <is>
+          <t>30/44</t>
+        </is>
+      </c>
+      <c r="J46" s="1" t="inlineStr">
+        <is>
+          <t>38/84</t>
+        </is>
+      </c>
+      <c r="K46" s="1" t="inlineStr">
+        <is>
+          <t>26/32</t>
+        </is>
+      </c>
       <c r="L46" s="1" t="n"/>
-      <c r="M46" s="1" t="n"/>
+      <c r="M46" s="1" t="inlineStr">
+        <is>
+          <t>58/76</t>
+        </is>
+      </c>
       <c r="N46" s="1" t="n"/>
       <c r="O46" s="1" t="n"/>
       <c r="P46" s="1" t="n"/>
@@ -1964,25 +3538,67 @@
       <c r="W46" s="1" t="n"/>
       <c r="X46" s="1" t="n"/>
       <c r="Y46" s="1" t="n"/>
-      <c r="Z46" s="1" t="n"/>
-      <c r="AA46" s="1" t="n"/>
-      <c r="AB46" s="2" t="n"/>
+      <c r="Z46" s="1" t="n">
+        <v>-0.8139</v>
+      </c>
+      <c r="AA46" s="1" t="n">
+        <v>-0.3273</v>
+      </c>
+      <c r="AB46" s="2" t="n">
+        <v>0.06950000000000001</v>
+      </c>
       <c r="AC46" s="2" t="n"/>
     </row>
     <row r="47" ht="15" customHeight="1">
-      <c r="A47" s="1" t="n"/>
-      <c r="B47" s="1" t="n"/>
-      <c r="C47" s="1" t="n"/>
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>TY</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>42.9</v>
+      </c>
       <c r="D47" s="1" t="n"/>
-      <c r="E47" s="1" t="n"/>
-      <c r="F47" s="1" t="n"/>
-      <c r="G47" s="1" t="n"/>
+      <c r="E47" s="1" t="inlineStr">
+        <is>
+          <t>40/82</t>
+        </is>
+      </c>
+      <c r="F47" s="1" t="inlineStr">
+        <is>
+          <t>24/204</t>
+        </is>
+      </c>
+      <c r="G47" s="1" t="inlineStr">
+        <is>
+          <t>136/174</t>
+        </is>
+      </c>
       <c r="H47" s="1" t="n"/>
-      <c r="I47" s="1" t="n"/>
-      <c r="J47" s="1" t="n"/>
-      <c r="K47" s="1" t="n"/>
+      <c r="I47" s="1" t="inlineStr">
+        <is>
+          <t>138/174</t>
+        </is>
+      </c>
+      <c r="J47" s="1" t="inlineStr">
+        <is>
+          <t>34/82</t>
+        </is>
+      </c>
+      <c r="K47" s="1" t="inlineStr">
+        <is>
+          <t>28/186</t>
+        </is>
+      </c>
       <c r="L47" s="1" t="n"/>
-      <c r="M47" s="1" t="n"/>
+      <c r="M47" s="1" t="inlineStr">
+        <is>
+          <t>56/82</t>
+        </is>
+      </c>
       <c r="N47" s="1" t="n"/>
       <c r="O47" s="1" t="n"/>
       <c r="P47" s="1" t="n"/>
@@ -1995,25 +3611,67 @@
       <c r="W47" s="1" t="n"/>
       <c r="X47" s="1" t="n"/>
       <c r="Y47" s="1" t="n"/>
-      <c r="Z47" s="1" t="n"/>
-      <c r="AA47" s="1" t="n"/>
-      <c r="AB47" s="2" t="n"/>
+      <c r="Z47" s="1" t="n">
+        <v>-0.4431</v>
+      </c>
+      <c r="AA47" s="1" t="n">
+        <v>0.1509</v>
+      </c>
+      <c r="AB47" s="2" t="n">
+        <v>0.1178</v>
+      </c>
       <c r="AC47" s="2" t="n"/>
     </row>
     <row r="48" ht="17.25" customHeight="1">
-      <c r="A48" s="1" t="n"/>
-      <c r="B48" s="1" t="n"/>
-      <c r="C48" s="1" t="n"/>
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>TU</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>37.5</v>
+      </c>
       <c r="D48" s="1" t="n"/>
-      <c r="E48" s="1" t="n"/>
-      <c r="F48" s="1" t="n"/>
-      <c r="G48" s="1" t="n"/>
+      <c r="E48" s="1" t="inlineStr">
+        <is>
+          <t>262/282</t>
+        </is>
+      </c>
+      <c r="F48" s="1" t="inlineStr">
+        <is>
+          <t>36/216</t>
+        </is>
+      </c>
+      <c r="G48" s="1" t="inlineStr">
+        <is>
+          <t>236/266</t>
+        </is>
+      </c>
       <c r="H48" s="1" t="n"/>
-      <c r="I48" s="1" t="n"/>
-      <c r="J48" s="1" t="n"/>
-      <c r="K48" s="1" t="n"/>
+      <c r="I48" s="1" t="inlineStr">
+        <is>
+          <t>30/248</t>
+        </is>
+      </c>
+      <c r="J48" s="1" t="inlineStr">
+        <is>
+          <t>46/106</t>
+        </is>
+      </c>
+      <c r="K48" s="1" t="inlineStr">
+        <is>
+          <t>230/262</t>
+        </is>
+      </c>
       <c r="L48" s="1" t="n"/>
-      <c r="M48" s="1" t="n"/>
+      <c r="M48" s="1" t="inlineStr">
+        <is>
+          <t>274/284</t>
+        </is>
+      </c>
       <c r="N48" s="1" t="n"/>
       <c r="O48" s="1" t="n"/>
       <c r="P48" s="1" t="n"/>
@@ -2026,25 +3684,67 @@
       <c r="W48" s="1" t="n"/>
       <c r="X48" s="1" t="n"/>
       <c r="Y48" s="1" t="n"/>
-      <c r="Z48" s="1" t="n"/>
-      <c r="AA48" s="1" t="n"/>
-      <c r="AB48" s="2" t="n"/>
+      <c r="Z48" s="1" t="n">
+        <v>1.1058</v>
+      </c>
+      <c r="AA48" s="1" t="n">
+        <v>1.0007</v>
+      </c>
+      <c r="AB48" s="2" t="n">
+        <v>0.8033</v>
+      </c>
       <c r="AC48" s="2" t="n"/>
     </row>
     <row r="49" ht="17.25" customHeight="1">
-      <c r="A49" s="1" t="n"/>
-      <c r="B49" s="1" t="n"/>
-      <c r="C49" s="1" t="n"/>
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>UB</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>53.3</v>
+      </c>
       <c r="D49" s="1" t="n"/>
-      <c r="E49" s="1" t="n"/>
-      <c r="F49" s="1" t="n"/>
-      <c r="G49" s="1" t="n"/>
+      <c r="E49" s="1" t="inlineStr">
+        <is>
+          <t>40/80</t>
+        </is>
+      </c>
+      <c r="F49" s="1" t="inlineStr">
+        <is>
+          <t>34/138</t>
+        </is>
+      </c>
+      <c r="G49" s="1" t="inlineStr">
+        <is>
+          <t>30/206</t>
+        </is>
+      </c>
       <c r="H49" s="1" t="n"/>
-      <c r="I49" s="1" t="n"/>
-      <c r="J49" s="1" t="n"/>
-      <c r="K49" s="1" t="n"/>
+      <c r="I49" s="1" t="inlineStr">
+        <is>
+          <t>42/80</t>
+        </is>
+      </c>
+      <c r="J49" s="1" t="inlineStr">
+        <is>
+          <t>34/140</t>
+        </is>
+      </c>
+      <c r="K49" s="1" t="inlineStr">
+        <is>
+          <t>42/52</t>
+        </is>
+      </c>
       <c r="L49" s="1" t="n"/>
-      <c r="M49" s="1" t="n"/>
+      <c r="M49" s="1" t="inlineStr">
+        <is>
+          <t>62/80</t>
+        </is>
+      </c>
       <c r="N49" s="1" t="n"/>
       <c r="O49" s="1" t="n"/>
       <c r="P49" s="1" t="n"/>
@@ -2057,25 +3757,67 @@
       <c r="W49" s="1" t="n"/>
       <c r="X49" s="1" t="n"/>
       <c r="Y49" s="1" t="n"/>
-      <c r="Z49" s="1" t="n"/>
-      <c r="AA49" s="1" t="n"/>
-      <c r="AB49" s="2" t="n"/>
+      <c r="Z49" s="1" t="n">
+        <v>0.0897</v>
+      </c>
+      <c r="AA49" s="1" t="n">
+        <v>0.4397</v>
+      </c>
+      <c r="AB49" s="2" t="n">
+        <v>0.1354</v>
+      </c>
       <c r="AC49" s="2" t="n"/>
     </row>
     <row r="50" ht="17.25" customHeight="1">
-      <c r="A50" s="1" t="n"/>
-      <c r="B50" s="1" t="n"/>
-      <c r="C50" s="1" t="n"/>
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>ULS</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>38.9</v>
+      </c>
       <c r="D50" s="1" t="n"/>
-      <c r="E50" s="1" t="n"/>
-      <c r="F50" s="1" t="n"/>
-      <c r="G50" s="1" t="n"/>
+      <c r="E50" s="1" t="inlineStr">
+        <is>
+          <t>166/198</t>
+        </is>
+      </c>
+      <c r="F50" s="1" t="inlineStr">
+        <is>
+          <t>180/254</t>
+        </is>
+      </c>
+      <c r="G50" s="1" t="inlineStr">
+        <is>
+          <t>124/212</t>
+        </is>
+      </c>
       <c r="H50" s="1" t="n"/>
-      <c r="I50" s="1" t="n"/>
-      <c r="J50" s="1" t="n"/>
-      <c r="K50" s="1" t="n"/>
+      <c r="I50" s="1" t="inlineStr">
+        <is>
+          <t>24/28</t>
+        </is>
+      </c>
+      <c r="J50" s="1" t="inlineStr">
+        <is>
+          <t>206/208</t>
+        </is>
+      </c>
+      <c r="K50" s="1" t="inlineStr">
+        <is>
+          <t>140/196</t>
+        </is>
+      </c>
       <c r="L50" s="1" t="n"/>
-      <c r="M50" s="1" t="n"/>
+      <c r="M50" s="1" t="inlineStr">
+        <is>
+          <t>166/168</t>
+        </is>
+      </c>
       <c r="N50" s="1" t="n"/>
       <c r="O50" s="1" t="n"/>
       <c r="P50" s="1" t="n"/>
@@ -2088,25 +3830,67 @@
       <c r="W50" s="1" t="n"/>
       <c r="X50" s="1" t="n"/>
       <c r="Y50" s="1" t="n"/>
-      <c r="Z50" s="1" t="n"/>
-      <c r="AA50" s="1" t="n"/>
-      <c r="AB50" s="2" t="n"/>
+      <c r="Z50" s="1" t="n">
+        <v>-0.2111</v>
+      </c>
+      <c r="AA50" s="1" t="n">
+        <v>0.1787</v>
+      </c>
+      <c r="AB50" s="2" t="n">
+        <v>0.2261</v>
+      </c>
       <c r="AC50" s="2" t="n"/>
     </row>
     <row r="51" ht="17.25" customHeight="1">
-      <c r="A51" s="1" t="n"/>
-      <c r="B51" s="1" t="n"/>
-      <c r="C51" s="1" t="n"/>
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>41.2</v>
+      </c>
       <c r="D51" s="1" t="n"/>
-      <c r="E51" s="1" t="n"/>
-      <c r="F51" s="1" t="n"/>
-      <c r="G51" s="1" t="n"/>
+      <c r="E51" s="1" t="inlineStr">
+        <is>
+          <t>48/90</t>
+        </is>
+      </c>
+      <c r="F51" s="1" t="inlineStr">
+        <is>
+          <t>44/130</t>
+        </is>
+      </c>
+      <c r="G51" s="1" t="inlineStr">
+        <is>
+          <t>28/66</t>
+        </is>
+      </c>
       <c r="H51" s="1" t="n"/>
-      <c r="I51" s="1" t="n"/>
-      <c r="J51" s="1" t="n"/>
-      <c r="K51" s="1" t="n"/>
+      <c r="I51" s="1" t="inlineStr">
+        <is>
+          <t>34/88</t>
+        </is>
+      </c>
+      <c r="J51" s="1" t="inlineStr">
+        <is>
+          <t>156/160</t>
+        </is>
+      </c>
+      <c r="K51" s="1" t="inlineStr">
+        <is>
+          <t>38/152</t>
+        </is>
+      </c>
       <c r="L51" s="1" t="n"/>
-      <c r="M51" s="1" t="n"/>
+      <c r="M51" s="1" t="inlineStr">
+        <is>
+          <t>62/94</t>
+        </is>
+      </c>
       <c r="N51" s="1" t="n"/>
       <c r="O51" s="1" t="n"/>
       <c r="P51" s="1" t="n"/>
@@ -2119,17 +3903,33 @@
       <c r="W51" s="1" t="n"/>
       <c r="X51" s="1" t="n"/>
       <c r="Y51" s="1" t="n"/>
-      <c r="Z51" s="1" t="n"/>
-      <c r="AA51" s="1" t="n"/>
-      <c r="AB51" s="2" t="n"/>
+      <c r="Z51" s="1" t="n">
+        <v>0.1936</v>
+      </c>
+      <c r="AA51" s="1" t="n">
+        <v>-0.3485</v>
+      </c>
+      <c r="AB51" s="2" t="n">
+        <v>-0.2601</v>
+      </c>
       <c r="AC51" s="2" t="n"/>
     </row>
     <row r="52" ht="17.25" customHeight="1">
-      <c r="A52" s="1" t="n"/>
-      <c r="B52" s="1" t="n"/>
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>VX</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>64.3</v>
+      </c>
       <c r="C52" s="1" t="n"/>
       <c r="D52" s="1" t="n"/>
-      <c r="E52" s="1" t="n"/>
+      <c r="E52" s="1" t="inlineStr">
+        <is>
+          <t>230/252</t>
+        </is>
+      </c>
       <c r="F52" s="1" t="n"/>
       <c r="G52" s="1" t="n"/>
       <c r="H52" s="1" t="n"/>
@@ -2137,7 +3937,11 @@
       <c r="J52" s="1" t="n"/>
       <c r="K52" s="1" t="n"/>
       <c r="L52" s="1" t="n"/>
-      <c r="M52" s="1" t="n"/>
+      <c r="M52" s="1" t="inlineStr">
+        <is>
+          <t>20/26</t>
+        </is>
+      </c>
       <c r="N52" s="1" t="n"/>
       <c r="O52" s="1" t="n"/>
       <c r="P52" s="1" t="n"/>
@@ -2150,25 +3954,65 @@
       <c r="W52" s="1" t="n"/>
       <c r="X52" s="1" t="n"/>
       <c r="Y52" s="1" t="n"/>
-      <c r="Z52" s="1" t="n"/>
-      <c r="AA52" s="1" t="n"/>
+      <c r="Z52" s="1" t="n">
+        <v>-0.0801</v>
+      </c>
+      <c r="AA52" s="1" t="n">
+        <v>0.6423</v>
+      </c>
       <c r="AB52" s="2" t="n"/>
       <c r="AC52" s="2" t="n"/>
     </row>
     <row r="53" ht="17.25" customHeight="1">
-      <c r="A53" s="1" t="n"/>
-      <c r="B53" s="1" t="n"/>
-      <c r="C53" s="1" t="n"/>
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>65</v>
+      </c>
       <c r="D53" s="1" t="n"/>
-      <c r="E53" s="1" t="n"/>
-      <c r="F53" s="1" t="n"/>
-      <c r="G53" s="1" t="n"/>
+      <c r="E53" s="1" t="inlineStr">
+        <is>
+          <t>28/58</t>
+        </is>
+      </c>
+      <c r="F53" s="1" t="inlineStr">
+        <is>
+          <t>40/98</t>
+        </is>
+      </c>
+      <c r="G53" s="1" t="inlineStr">
+        <is>
+          <t>42/208</t>
+        </is>
+      </c>
       <c r="H53" s="1" t="n"/>
-      <c r="I53" s="1" t="n"/>
-      <c r="J53" s="1" t="n"/>
-      <c r="K53" s="1" t="n"/>
+      <c r="I53" s="1" t="inlineStr">
+        <is>
+          <t>28/58</t>
+        </is>
+      </c>
+      <c r="J53" s="1" t="inlineStr">
+        <is>
+          <t>42/44</t>
+        </is>
+      </c>
+      <c r="K53" s="1" t="inlineStr">
+        <is>
+          <t>158/180</t>
+        </is>
+      </c>
       <c r="L53" s="1" t="n"/>
-      <c r="M53" s="1" t="n"/>
+      <c r="M53" s="1" t="inlineStr">
+        <is>
+          <t>48/50</t>
+        </is>
+      </c>
       <c r="N53" s="1" t="n"/>
       <c r="O53" s="1" t="n"/>
       <c r="P53" s="1" t="n"/>
@@ -2181,25 +4025,67 @@
       <c r="W53" s="1" t="n"/>
       <c r="X53" s="1" t="n"/>
       <c r="Y53" s="1" t="n"/>
-      <c r="Z53" s="1" t="n"/>
-      <c r="AA53" s="1" t="n"/>
-      <c r="AB53" s="2" t="n"/>
+      <c r="Z53" s="1" t="n">
+        <v>-0.5502</v>
+      </c>
+      <c r="AA53" s="1" t="n">
+        <v>-0.1715</v>
+      </c>
+      <c r="AB53" s="2" t="n">
+        <v>-0.1305</v>
+      </c>
       <c r="AC53" s="2" t="n"/>
     </row>
     <row r="54" ht="17.25" customHeight="1">
-      <c r="A54" s="1" t="n"/>
-      <c r="B54" s="1" t="n"/>
-      <c r="C54" s="1" t="n"/>
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>WBS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>50</v>
+      </c>
       <c r="D54" s="1" t="n"/>
-      <c r="E54" s="1" t="n"/>
-      <c r="F54" s="1" t="n"/>
-      <c r="G54" s="1" t="n"/>
+      <c r="E54" s="1" t="inlineStr">
+        <is>
+          <t>28/58</t>
+        </is>
+      </c>
+      <c r="F54" s="1" t="inlineStr">
+        <is>
+          <t>40/98</t>
+        </is>
+      </c>
+      <c r="G54" s="1" t="inlineStr">
+        <is>
+          <t>102/234</t>
+        </is>
+      </c>
       <c r="H54" s="1" t="n"/>
-      <c r="I54" s="1" t="n"/>
-      <c r="J54" s="1" t="n"/>
-      <c r="K54" s="1" t="n"/>
+      <c r="I54" s="1" t="inlineStr">
+        <is>
+          <t>30/50</t>
+        </is>
+      </c>
+      <c r="J54" s="1" t="inlineStr">
+        <is>
+          <t>34/38</t>
+        </is>
+      </c>
+      <c r="K54" s="1" t="inlineStr">
+        <is>
+          <t>176/184</t>
+        </is>
+      </c>
       <c r="L54" s="1" t="n"/>
-      <c r="M54" s="1" t="n"/>
+      <c r="M54" s="1" t="inlineStr">
+        <is>
+          <t>48/50</t>
+        </is>
+      </c>
       <c r="N54" s="1" t="n"/>
       <c r="O54" s="1" t="n"/>
       <c r="P54" s="1" t="n"/>
@@ -2212,9 +4098,15 @@
       <c r="W54" s="1" t="n"/>
       <c r="X54" s="1" t="n"/>
       <c r="Y54" s="1" t="n"/>
-      <c r="Z54" s="1" t="n"/>
-      <c r="AA54" s="1" t="n"/>
-      <c r="AB54" s="2" t="n"/>
+      <c r="Z54" s="1" t="n">
+        <v>-0.5515</v>
+      </c>
+      <c r="AA54" s="1" t="n">
+        <v>-0.1423</v>
+      </c>
+      <c r="AB54" s="2" t="n">
+        <v>-0.1613</v>
+      </c>
       <c r="AC54" s="2" t="n"/>
     </row>
     <row r="55" ht="17.25" customHeight="1">

--- a/paprastas/Results.xlsx
+++ b/paprastas/Results.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -34,6 +34,13 @@
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -56,7 +63,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -66,6 +73,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,10 +352,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC1000"/>
+  <dimension ref="A1:AH1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -368,6 +376,9 @@
     <col width="8.7109375" customWidth="1" min="25" max="25"/>
     <col width="14.42578125" customWidth="1" min="26" max="26"/>
     <col width="18.140625" customWidth="1" min="27" max="27"/>
+    <col width="2.7109375" customWidth="1" min="29" max="29"/>
+    <col width="14.42578125" customWidth="1" min="31" max="31"/>
+    <col width="1.7109375" customWidth="1" min="32" max="32"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
@@ -422,6 +433,17 @@
       <c r="Y1" s="1" t="n"/>
       <c r="Z1" s="1" t="n"/>
       <c r="AA1" s="1" t="n"/>
+      <c r="AD1" s="5" t="inlineStr">
+        <is>
+          <t>Kmeans</t>
+        </is>
+      </c>
+      <c r="AF1" s="5" t="n"/>
+      <c r="AG1" s="5" t="inlineStr">
+        <is>
+          <t>Hierarchy</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="17.25" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
@@ -520,7 +542,28 @@
           <t>Hierarchy</t>
         </is>
       </c>
-      <c r="AC2" s="2" t="n"/>
+      <c r="AC2" s="1" t="n"/>
+      <c r="AD2" s="1" t="inlineStr">
+        <is>
+          <t>Skeweness</t>
+        </is>
+      </c>
+      <c r="AE2" s="1" t="inlineStr">
+        <is>
+          <t>Kurtosis</t>
+        </is>
+      </c>
+      <c r="AF2" s="1" t="n"/>
+      <c r="AG2" s="1" t="inlineStr">
+        <is>
+          <t>Skeweness</t>
+        </is>
+      </c>
+      <c r="AH2" s="1" t="inlineStr">
+        <is>
+          <t>Kurtosis</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
@@ -606,6 +649,19 @@
         <v>0.1991</v>
       </c>
       <c r="AC3" s="2" t="n"/>
+      <c r="AD3" s="2" t="n">
+        <v>-0.8484</v>
+      </c>
+      <c r="AE3" s="2" t="n">
+        <v>0.0128</v>
+      </c>
+      <c r="AF3" s="2" t="n"/>
+      <c r="AG3" t="n">
+        <v>-0.7367</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-0.6471</v>
+      </c>
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -679,6 +735,9 @@
         <v>-0.4732</v>
       </c>
       <c r="AC4" s="2" t="n"/>
+      <c r="AD4" s="2" t="n"/>
+      <c r="AE4" s="2" t="n"/>
+      <c r="AF4" s="2" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -752,6 +811,9 @@
         <v>0.347</v>
       </c>
       <c r="AC5" s="2" t="n"/>
+      <c r="AD5" s="2" t="n"/>
+      <c r="AE5" s="2" t="n"/>
+      <c r="AF5" s="2" t="n"/>
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -825,6 +887,9 @@
         <v>-0.0016</v>
       </c>
       <c r="AC6" s="2" t="n"/>
+      <c r="AD6" s="2" t="n"/>
+      <c r="AE6" s="2" t="n"/>
+      <c r="AF6" s="2" t="n"/>
     </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -898,6 +963,9 @@
         <v>1.8603</v>
       </c>
       <c r="AC7" s="2" t="n"/>
+      <c r="AD7" s="2" t="n"/>
+      <c r="AE7" s="2" t="n"/>
+      <c r="AF7" s="2" t="n"/>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
@@ -967,6 +1035,9 @@
         <v>1.8442</v>
       </c>
       <c r="AC8" s="2" t="n"/>
+      <c r="AD8" s="2" t="n"/>
+      <c r="AE8" s="2" t="n"/>
+      <c r="AF8" s="2" t="n"/>
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
@@ -1040,6 +1111,9 @@
         <v>-0.8242</v>
       </c>
       <c r="AC9" s="2" t="n"/>
+      <c r="AD9" s="2" t="n"/>
+      <c r="AE9" s="2" t="n"/>
+      <c r="AF9" s="2" t="n"/>
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
@@ -1113,6 +1187,9 @@
         <v>-0.554</v>
       </c>
       <c r="AC10" s="2" t="n"/>
+      <c r="AD10" s="2" t="n"/>
+      <c r="AE10" s="2" t="n"/>
+      <c r="AF10" s="2" t="n"/>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" s="2" t="inlineStr">
@@ -1186,6 +1263,9 @@
         <v>0.0475</v>
       </c>
       <c r="AC11" s="2" t="n"/>
+      <c r="AD11" s="2" t="n"/>
+      <c r="AE11" s="2" t="n"/>
+      <c r="AF11" s="2" t="n"/>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" s="2" t="inlineStr">
@@ -1259,6 +1339,9 @@
         <v>0.0029</v>
       </c>
       <c r="AC12" s="2" t="n"/>
+      <c r="AD12" s="2" t="n"/>
+      <c r="AE12" s="2" t="n"/>
+      <c r="AF12" s="2" t="n"/>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
@@ -1332,6 +1415,9 @@
         <v>-0.2857</v>
       </c>
       <c r="AC13" s="2" t="n"/>
+      <c r="AD13" s="2" t="n"/>
+      <c r="AE13" s="2" t="n"/>
+      <c r="AF13" s="2" t="n"/>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
@@ -1389,6 +1475,9 @@
       </c>
       <c r="AB14" s="2" t="n"/>
       <c r="AC14" s="2" t="n"/>
+      <c r="AD14" s="2" t="n"/>
+      <c r="AE14" s="2" t="n"/>
+      <c r="AF14" s="2" t="n"/>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
@@ -1462,6 +1551,9 @@
         <v>-0.0128</v>
       </c>
       <c r="AC15" s="2" t="n"/>
+      <c r="AD15" s="2" t="n"/>
+      <c r="AE15" s="2" t="n"/>
+      <c r="AF15" s="2" t="n"/>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
@@ -1535,6 +1627,9 @@
         <v>0.0383</v>
       </c>
       <c r="AC16" s="2" t="n"/>
+      <c r="AD16" s="2" t="n"/>
+      <c r="AE16" s="2" t="n"/>
+      <c r="AF16" s="2" t="n"/>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -1608,6 +1703,9 @@
         <v>-0.3559</v>
       </c>
       <c r="AC17" s="2" t="n"/>
+      <c r="AD17" s="2" t="n"/>
+      <c r="AE17" s="2" t="n"/>
+      <c r="AF17" s="2" t="n"/>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -1673,6 +1771,9 @@
         <v>-0.0102</v>
       </c>
       <c r="AC18" s="2" t="n"/>
+      <c r="AD18" s="2" t="n"/>
+      <c r="AE18" s="2" t="n"/>
+      <c r="AF18" s="2" t="n"/>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -1746,6 +1847,9 @@
         <v>-0.1171</v>
       </c>
       <c r="AC19" s="2" t="n"/>
+      <c r="AD19" s="2" t="n"/>
+      <c r="AE19" s="2" t="n"/>
+      <c r="AF19" s="2" t="n"/>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" s="1" t="inlineStr">
@@ -1819,6 +1923,9 @@
         <v>0.6846</v>
       </c>
       <c r="AC20" s="2" t="n"/>
+      <c r="AD20" s="2" t="n"/>
+      <c r="AE20" s="2" t="n"/>
+      <c r="AF20" s="2" t="n"/>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" s="1" t="inlineStr">
@@ -1892,6 +1999,9 @@
         <v>-0.3441</v>
       </c>
       <c r="AC21" s="2" t="n"/>
+      <c r="AD21" s="2" t="n"/>
+      <c r="AE21" s="2" t="n"/>
+      <c r="AF21" s="2" t="n"/>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" s="1" t="inlineStr">
@@ -1965,6 +2075,9 @@
         <v>-0.2439</v>
       </c>
       <c r="AC22" s="2" t="n"/>
+      <c r="AD22" s="2" t="n"/>
+      <c r="AE22" s="2" t="n"/>
+      <c r="AF22" s="2" t="n"/>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" s="1" t="inlineStr">
@@ -2038,6 +2151,9 @@
         <v>0.0312</v>
       </c>
       <c r="AC23" s="2" t="n"/>
+      <c r="AD23" s="2" t="n"/>
+      <c r="AE23" s="2" t="n"/>
+      <c r="AF23" s="2" t="n"/>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" s="1" t="inlineStr">
@@ -2111,6 +2227,9 @@
         <v>-0.7783</v>
       </c>
       <c r="AC24" s="2" t="n"/>
+      <c r="AD24" s="2" t="n"/>
+      <c r="AE24" s="2" t="n"/>
+      <c r="AF24" s="2" t="n"/>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" s="1" t="inlineStr">
@@ -2184,6 +2303,9 @@
         <v>0.6101</v>
       </c>
       <c r="AC25" s="2" t="n"/>
+      <c r="AD25" s="2" t="n"/>
+      <c r="AE25" s="2" t="n"/>
+      <c r="AF25" s="2" t="n"/>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" s="1" t="inlineStr">
@@ -2241,6 +2363,9 @@
       </c>
       <c r="AB26" s="2" t="n"/>
       <c r="AC26" s="2" t="n"/>
+      <c r="AD26" s="2" t="n"/>
+      <c r="AE26" s="2" t="n"/>
+      <c r="AF26" s="2" t="n"/>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" s="1" t="inlineStr">
@@ -2314,6 +2439,9 @@
         <v>0.4862</v>
       </c>
       <c r="AC27" s="2" t="n"/>
+      <c r="AD27" s="2" t="n"/>
+      <c r="AE27" s="2" t="n"/>
+      <c r="AF27" s="2" t="n"/>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" s="1" t="inlineStr">
@@ -2387,6 +2515,9 @@
         <v>0.7571</v>
       </c>
       <c r="AC28" s="2" t="n"/>
+      <c r="AD28" s="2" t="n"/>
+      <c r="AE28" s="2" t="n"/>
+      <c r="AF28" s="2" t="n"/>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" s="1" t="inlineStr">
@@ -2460,6 +2591,9 @@
         <v>0.2122</v>
       </c>
       <c r="AC29" s="2" t="n"/>
+      <c r="AD29" s="2" t="n"/>
+      <c r="AE29" s="2" t="n"/>
+      <c r="AF29" s="2" t="n"/>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" s="1" t="inlineStr">
@@ -2533,6 +2667,9 @@
         <v>-0.4287</v>
       </c>
       <c r="AC30" s="2" t="n"/>
+      <c r="AD30" s="2" t="n"/>
+      <c r="AE30" s="2" t="n"/>
+      <c r="AF30" s="2" t="n"/>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" s="1" t="inlineStr">
@@ -2606,6 +2743,9 @@
         <v>0.1308</v>
       </c>
       <c r="AC31" s="2" t="n"/>
+      <c r="AD31" s="2" t="n"/>
+      <c r="AE31" s="2" t="n"/>
+      <c r="AF31" s="2" t="n"/>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" s="1" t="inlineStr">
@@ -2675,6 +2815,9 @@
         <v>-0.2386</v>
       </c>
       <c r="AC32" s="2" t="n"/>
+      <c r="AD32" s="2" t="n"/>
+      <c r="AE32" s="2" t="n"/>
+      <c r="AF32" s="2" t="n"/>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" s="1" t="inlineStr">
@@ -2748,6 +2891,9 @@
         <v>-0.3374</v>
       </c>
       <c r="AC33" s="2" t="n"/>
+      <c r="AD33" s="2" t="n"/>
+      <c r="AE33" s="2" t="n"/>
+      <c r="AF33" s="2" t="n"/>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" s="1" t="inlineStr">
@@ -2821,6 +2967,9 @@
         <v>0.3829</v>
       </c>
       <c r="AC34" s="2" t="n"/>
+      <c r="AD34" s="2" t="n"/>
+      <c r="AE34" s="2" t="n"/>
+      <c r="AF34" s="2" t="n"/>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" s="1" t="inlineStr">
@@ -2894,6 +3043,9 @@
         <v>0.3074</v>
       </c>
       <c r="AC35" s="2" t="n"/>
+      <c r="AD35" s="2" t="n"/>
+      <c r="AE35" s="2" t="n"/>
+      <c r="AF35" s="2" t="n"/>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" s="1" t="inlineStr">
@@ -2967,6 +3119,9 @@
         <v>0.0975</v>
       </c>
       <c r="AC36" s="2" t="n"/>
+      <c r="AD36" s="2" t="n"/>
+      <c r="AE36" s="2" t="n"/>
+      <c r="AF36" s="2" t="n"/>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" s="1" t="inlineStr">
@@ -3040,6 +3195,9 @@
         <v>0.3793</v>
       </c>
       <c r="AC37" s="2" t="n"/>
+      <c r="AD37" s="2" t="n"/>
+      <c r="AE37" s="2" t="n"/>
+      <c r="AF37" s="2" t="n"/>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" s="1" t="inlineStr">
@@ -3113,6 +3271,9 @@
         <v>0.1594</v>
       </c>
       <c r="AC38" s="2" t="n"/>
+      <c r="AD38" s="2" t="n"/>
+      <c r="AE38" s="2" t="n"/>
+      <c r="AF38" s="2" t="n"/>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" s="1" t="inlineStr">
@@ -3186,6 +3347,9 @@
         <v>-0.1063</v>
       </c>
       <c r="AC39" s="2" t="n"/>
+      <c r="AD39" s="2" t="n"/>
+      <c r="AE39" s="2" t="n"/>
+      <c r="AF39" s="2" t="n"/>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" s="1" t="inlineStr">
@@ -3239,6 +3403,9 @@
       </c>
       <c r="AB40" s="2" t="n"/>
       <c r="AC40" s="2" t="n"/>
+      <c r="AD40" s="2" t="n"/>
+      <c r="AE40" s="2" t="n"/>
+      <c r="AF40" s="2" t="n"/>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" s="1" t="inlineStr">
@@ -3312,6 +3479,9 @@
         <v>-0.1782</v>
       </c>
       <c r="AC41" s="2" t="n"/>
+      <c r="AD41" s="2" t="n"/>
+      <c r="AE41" s="2" t="n"/>
+      <c r="AF41" s="2" t="n"/>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" s="1" t="inlineStr">
@@ -3377,6 +3547,9 @@
         <v>0.2671</v>
       </c>
       <c r="AC42" s="2" t="n"/>
+      <c r="AD42" s="2" t="n"/>
+      <c r="AE42" s="2" t="n"/>
+      <c r="AF42" s="2" t="n"/>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" s="1" t="inlineStr">
@@ -3450,6 +3623,9 @@
         <v>0.3556</v>
       </c>
       <c r="AC43" s="2" t="n"/>
+      <c r="AD43" s="2" t="n"/>
+      <c r="AE43" s="2" t="n"/>
+      <c r="AF43" s="2" t="n"/>
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="A44" s="1" t="inlineStr">
@@ -3523,6 +3699,9 @@
         <v>0.3564</v>
       </c>
       <c r="AC44" s="2" t="n"/>
+      <c r="AD44" s="2" t="n"/>
+      <c r="AE44" s="2" t="n"/>
+      <c r="AF44" s="2" t="n"/>
     </row>
     <row r="45" ht="15" customHeight="1">
       <c r="A45" s="1" t="inlineStr">
@@ -3596,6 +3775,9 @@
         <v>-0.8256</v>
       </c>
       <c r="AC45" s="2" t="n"/>
+      <c r="AD45" s="2" t="n"/>
+      <c r="AE45" s="2" t="n"/>
+      <c r="AF45" s="2" t="n"/>
     </row>
     <row r="46" ht="15" customHeight="1">
       <c r="A46" s="1" t="inlineStr">
@@ -3665,6 +3847,9 @@
         <v>-0.7466</v>
       </c>
       <c r="AC46" s="2" t="n"/>
+      <c r="AD46" s="2" t="n"/>
+      <c r="AE46" s="2" t="n"/>
+      <c r="AF46" s="2" t="n"/>
     </row>
     <row r="47" ht="15" customHeight="1">
       <c r="A47" s="1" t="inlineStr">
@@ -3738,6 +3923,9 @@
         <v>-0.3178</v>
       </c>
       <c r="AC47" s="2" t="n"/>
+      <c r="AD47" s="2" t="n"/>
+      <c r="AE47" s="2" t="n"/>
+      <c r="AF47" s="2" t="n"/>
     </row>
     <row r="48" ht="17.25" customHeight="1">
       <c r="A48" s="1" t="inlineStr">
@@ -3811,6 +3999,9 @@
         <v>-0.0591</v>
       </c>
       <c r="AC48" s="2" t="n"/>
+      <c r="AD48" s="2" t="n"/>
+      <c r="AE48" s="2" t="n"/>
+      <c r="AF48" s="2" t="n"/>
     </row>
     <row r="49" ht="17.25" customHeight="1">
       <c r="A49" s="1" t="inlineStr">
@@ -3884,6 +4075,9 @@
         <v>0.9735</v>
       </c>
       <c r="AC49" s="2" t="n"/>
+      <c r="AD49" s="2" t="n"/>
+      <c r="AE49" s="2" t="n"/>
+      <c r="AF49" s="2" t="n"/>
     </row>
     <row r="50" ht="17.25" customHeight="1">
       <c r="A50" s="1" t="inlineStr">
@@ -3957,6 +4151,9 @@
         <v>0.1318</v>
       </c>
       <c r="AC50" s="2" t="n"/>
+      <c r="AD50" s="2" t="n"/>
+      <c r="AE50" s="2" t="n"/>
+      <c r="AF50" s="2" t="n"/>
     </row>
     <row r="51" ht="17.25" customHeight="1">
       <c r="A51" s="1" t="inlineStr">
@@ -4030,6 +4227,9 @@
         <v>0.2511</v>
       </c>
       <c r="AC51" s="2" t="n"/>
+      <c r="AD51" s="2" t="n"/>
+      <c r="AE51" s="2" t="n"/>
+      <c r="AF51" s="2" t="n"/>
     </row>
     <row r="52" ht="17.25" customHeight="1">
       <c r="A52" s="1" t="inlineStr">
@@ -4103,6 +4303,9 @@
         <v>-0.3812</v>
       </c>
       <c r="AC52" s="2" t="n"/>
+      <c r="AD52" s="2" t="n"/>
+      <c r="AE52" s="2" t="n"/>
+      <c r="AF52" s="2" t="n"/>
     </row>
     <row r="53" ht="17.25" customHeight="1">
       <c r="A53" s="1" t="inlineStr">
@@ -4152,6 +4355,9 @@
       </c>
       <c r="AB53" s="2" t="n"/>
       <c r="AC53" s="2" t="n"/>
+      <c r="AD53" s="2" t="n"/>
+      <c r="AE53" s="2" t="n"/>
+      <c r="AF53" s="2" t="n"/>
     </row>
     <row r="54" ht="17.25" customHeight="1">
       <c r="A54" s="1" t="inlineStr">
@@ -4225,6 +4431,9 @@
         <v>-0.1479</v>
       </c>
       <c r="AC54" s="2" t="n"/>
+      <c r="AD54" s="2" t="n"/>
+      <c r="AE54" s="2" t="n"/>
+      <c r="AF54" s="2" t="n"/>
     </row>
     <row r="55" ht="17.25" customHeight="1">
       <c r="A55" s="1" t="inlineStr">
@@ -4298,6 +4507,9 @@
         <v>-0.2822</v>
       </c>
       <c r="AC55" s="2" t="n"/>
+      <c r="AD55" s="2" t="n"/>
+      <c r="AE55" s="2" t="n"/>
+      <c r="AF55" s="2" t="n"/>
     </row>
     <row r="56" ht="17.25" customHeight="1">
       <c r="A56" s="1" t="n"/>
@@ -4329,6 +4541,9 @@
       <c r="AA56" s="1" t="n"/>
       <c r="AB56" s="2" t="n"/>
       <c r="AC56" s="2" t="n"/>
+      <c r="AD56" s="2" t="n"/>
+      <c r="AE56" s="2" t="n"/>
+      <c r="AF56" s="2" t="n"/>
     </row>
     <row r="57" ht="17.25" customHeight="1">
       <c r="A57" s="1" t="n"/>
